--- a/orders_export1265-6-2.xlsx
+++ b/orders_export1265-6-2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (5)\Tracking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="18195" windowHeight="6990" activeTab="2"/>
   </bookViews>
@@ -13,12 +18,11 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15289" uniqueCount="2879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15290" uniqueCount="2880">
   <si>
     <t>Name</t>
   </si>
@@ -8706,6 +8710,9 @@
   </si>
   <si>
     <t>LT112191375CN</t>
+  </si>
+  <si>
+    <t>version 1.0</t>
   </si>
 </sst>
 </file>
@@ -9362,7 +9369,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9436,179 +9443,83 @@
     <xf numFmtId="12" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="12" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="24" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="12" fontId="18" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="24" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="20" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="18" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="24" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="24" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="24" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="24" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="24" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="24" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9660,6 +9571,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -9707,7 +9621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9742,7 +9656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -70131,9 +70045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -70150,4440 +70064,4807 @@
     <col min="11" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="42" t="s">
         <v>2579</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="41" t="s">
         <v>2582</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="41" t="s">
         <v>2580</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="41" t="s">
         <v>2581</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="41" t="s">
         <v>2847</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="43" t="s">
         <v>2813</v>
       </c>
+      <c r="J1" s="41" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="41" t="s">
         <v>2790</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>2849</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="44" t="s">
         <v>2850</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="41" t="s">
         <v>2791</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="41">
         <v>252</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="45">
         <v>42654</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="46">
         <v>79255422772053</v>
       </c>
+      <c r="J2" s="41"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="41" t="s">
         <v>2783</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="41" t="s">
         <v>2804</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="41" t="s">
         <v>75</v>
       </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="41" t="s">
         <v>2784</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="41" t="s">
         <v>2803</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="44" t="s">
         <v>2853</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="41">
         <v>20</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="45">
         <v>42654</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="48">
         <v>79252267242053</v>
       </c>
+      <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="41" t="s">
         <v>2785</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="41" t="s">
         <v>2802</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="44" t="s">
         <v>2812</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="41">
         <v>72</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="45">
         <v>42653</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="48">
         <v>79218100722053</v>
       </c>
+      <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="41" t="s">
         <v>2786</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>2855</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="41">
         <v>17.2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="45">
         <v>42653</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="46">
         <v>79225935012053</v>
       </c>
+      <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="41" t="s">
         <v>2786</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>2854</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>2865</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="41" t="s">
         <v>2792</v>
       </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="41" t="s">
         <v>2787</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="41" t="s">
         <v>2801</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="44" t="s">
         <v>2852</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="41">
         <v>20</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="45">
         <v>42654</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="49" t="s">
         <v>2835</v>
       </c>
+      <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="41" t="s">
         <v>2788</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="41" t="s">
         <v>2800</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="47" t="s">
         <v>2834</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="41" t="s">
         <v>75</v>
       </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="41" t="s">
         <v>2789</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="41" t="s">
         <v>2799</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>2851</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="41">
         <v>20</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="45">
         <v>42654</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="48">
         <v>79198007982053</v>
       </c>
+      <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="41" t="s">
         <v>2688</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="41" t="s">
         <v>2798</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="47" t="s">
         <v>2830</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="41" t="s">
         <v>2683</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="41" t="s">
         <v>2797</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="47" t="s">
         <v>2831</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="41" t="s">
         <v>2677</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="41" t="s">
         <v>2796</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="47" t="s">
         <v>2832</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="41" t="s">
         <v>2676</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="41" t="s">
         <v>2795</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="47" t="s">
         <v>2833</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="41"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="41" t="s">
         <v>2669</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="41" t="s">
         <v>2794</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="50" t="s">
         <v>2857</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="41">
         <v>20</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="45">
         <v>42652</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="51">
         <v>79161206472053</v>
       </c>
+      <c r="J15" s="41"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="41" t="s">
         <v>2636</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="41" t="s">
         <v>2793</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="41">
         <v>78</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="45">
         <v>42653</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="41" t="s">
         <v>2630</v>
       </c>
-      <c r="I16" s="37">
+      <c r="H16" s="41"/>
+      <c r="I16" s="48">
         <v>79196133282053</v>
       </c>
+      <c r="J16" s="41"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="47" t="s">
         <v>2829</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="41"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="44" t="s">
         <v>2811</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="41">
         <v>72</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="45">
         <v>42653</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="48">
         <v>79219583622053</v>
       </c>
+      <c r="J18" s="41"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="47" t="s">
         <v>2828</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="44" t="s">
         <v>2848</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="45">
         <v>42654</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="51">
         <v>79229771522053</v>
       </c>
+      <c r="J20" s="41"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="44" t="s">
         <v>2810</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="41">
         <v>37.4</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="45">
         <v>42653</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="49" t="s">
         <v>2836</v>
       </c>
+      <c r="J21" s="41"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="44" t="s">
         <v>2858</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="41">
         <v>22</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="45">
         <v>42652</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="51">
         <v>79256035052053</v>
       </c>
+      <c r="J22" s="41"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="42" t="s">
         <v>2827</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="52" t="s">
         <v>2856</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="41">
         <v>16.88</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="45">
         <v>42653</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="51">
         <v>79193217492053</v>
       </c>
+      <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="53" t="s">
         <v>2815</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="41">
         <v>22</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="45">
         <v>42652</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="51">
         <v>79161008482053</v>
       </c>
+      <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="42" t="s">
         <v>2824</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="42" t="s">
         <v>2825</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="42" t="s">
         <v>2826</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="41"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="53" t="s">
         <v>2754</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="45">
         <v>42651</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="46">
         <v>79102166772053</v>
       </c>
+      <c r="J29" s="41"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="42" t="s">
         <v>2822</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="42" t="s">
         <v>2823</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="53" t="s">
         <v>2816</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="41">
         <v>18</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="45">
         <v>42652</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="51">
         <v>79161082532053</v>
       </c>
+      <c r="J32" s="41"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="42" t="s">
         <v>2821</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="41"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="42" t="s">
         <v>2820</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41" t="s">
         <v>2860</v>
       </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="41"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="42" t="s">
         <v>2838</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I35" s="43"/>
+      <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="53" t="s">
         <v>2817</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="41">
         <v>20</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="45">
         <v>42652</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="51">
         <v>79255754062053</v>
       </c>
+      <c r="J36" s="41"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="53" t="s">
         <v>2814</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="41">
         <v>17.2</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="45">
         <v>42653</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="51">
         <v>79193571952053</v>
       </c>
+      <c r="J37" s="41"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="53" t="s">
         <v>2818</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="41">
         <v>20</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="45">
         <v>42652</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="51">
         <v>79255750732053</v>
       </c>
+      <c r="J38" s="41"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="28" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="53" t="s">
         <v>2805</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="41" t="s">
         <v>1573</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="41">
         <v>692</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="45">
         <v>42651</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="51">
         <v>79197714332053</v>
       </c>
+      <c r="J39" s="41"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="53" t="s">
         <v>2806</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="41">
         <v>22</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="45">
         <v>42650</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="51">
         <v>79183117092053</v>
       </c>
+      <c r="J40" s="41"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="42" t="s">
         <v>2755</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="28" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="42" t="s">
         <v>2756</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="41"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="28" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="53" t="s">
         <v>2807</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="41">
         <v>20</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="45">
         <v>42650</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="51">
         <v>79085167672053</v>
       </c>
+      <c r="J43" s="41"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="53" t="s">
         <v>2808</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="41">
         <v>20</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="45">
         <v>42650</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="51">
         <v>79182714022053</v>
       </c>
+      <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="42" t="s">
         <v>2757</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="41"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="41" t="s">
         <v>306</v>
       </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="41"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="53" t="s">
         <v>2631</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="41">
         <v>19</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="45">
         <v>42650</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="51">
         <v>79182196042053</v>
       </c>
+      <c r="J47" s="41"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="28" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="54" t="s">
         <v>2632</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="41">
         <v>20</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="45">
         <v>42650</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="51">
         <v>79181835412053</v>
       </c>
+      <c r="J48" s="41"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="53" t="s">
         <v>2809</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="41">
         <v>5.26</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="45">
         <v>42650</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="48">
         <v>79084004672053</v>
       </c>
+      <c r="J49" s="41"/>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="28" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="42" t="s">
         <v>2758</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I50" s="43"/>
+      <c r="J50" s="41"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="42" t="s">
         <v>2759</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I51" s="43"/>
+      <c r="J51" s="41"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="53" t="s">
         <v>2633</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="41">
         <v>20</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="45">
         <v>42650</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="51">
         <v>79181670472053</v>
       </c>
+      <c r="J52" s="41"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="53" t="s">
         <v>2624</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="41">
         <v>47.4</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="45">
         <v>42649</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="51">
         <v>79096262932053</v>
       </c>
+      <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="28" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="42" t="s">
         <v>2760</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I54" s="43"/>
+      <c r="J54" s="41"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="28" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="53" t="s">
         <v>2621</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="45">
         <v>42650</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="48">
         <v>79131744562053</v>
       </c>
+      <c r="J55" s="41"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="28" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="53" t="s">
         <v>2634</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="41">
         <v>17</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="45">
         <v>42650</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I56" s="41">
+      <c r="I56" s="51">
         <v>79141741942053</v>
       </c>
+      <c r="J56" s="41"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="53" t="s">
         <v>2622</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="41">
         <v>47.4</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="45">
         <v>42649</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I57" s="41">
+      <c r="I57" s="51">
         <v>79141352422053</v>
       </c>
+      <c r="J57" s="41"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="28" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="42" t="s">
         <v>2761</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I58" s="43"/>
+      <c r="J58" s="41"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="28" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="42" t="s">
         <v>2762</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="31" t="s">
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I59" s="43"/>
+      <c r="J59" s="41"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="28" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="42" t="s">
         <v>2763</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="31" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I60" s="43"/>
+      <c r="J60" s="41"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="28" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="42" t="s">
         <v>2764</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I61" s="43"/>
+      <c r="J61" s="41"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="28" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="42" t="s">
         <v>2765</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I62" s="43"/>
+      <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="53" t="s">
         <v>2625</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="41">
         <v>47.4</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="45">
         <v>42649</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I63" s="41">
+      <c r="I63" s="51">
         <v>79072291242053</v>
       </c>
+      <c r="J63" s="41"/>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="53" t="s">
         <v>2620</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="41">
         <v>47.4</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="45">
         <v>42650</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="G64" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="55" t="s">
         <v>2860</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="48">
         <v>79076208432053</v>
       </c>
+      <c r="J64" s="41"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="53" t="s">
         <v>2626</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="45">
         <v>42648</v>
       </c>
-      <c r="G65" s="31" t="s">
+      <c r="G65" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I65" s="32">
+      <c r="I65" s="43">
         <v>79065662362053</v>
       </c>
+      <c r="J65" s="41"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="28" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="53" t="s">
         <v>2639</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="41">
         <v>56.05</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="45">
         <v>42281</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I66" s="41">
+      <c r="I66" s="51">
         <v>79009298732053</v>
       </c>
+      <c r="J66" s="41"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="28" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="53" t="s">
         <v>2640</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="41">
         <v>30</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="45">
         <v>42647</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I67" s="41">
+      <c r="I67" s="51">
         <v>79008052772053</v>
       </c>
+      <c r="J67" s="41"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="28" t="s">
+    <row r="68" spans="1:10">
+      <c r="A68" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="42" t="s">
         <v>2766</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G68" s="31" t="s">
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I68" s="43"/>
+      <c r="J68" s="41"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="28" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="42" t="s">
         <v>2767</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I69" s="43"/>
+      <c r="J69" s="41"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="28" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="42" t="s">
         <v>2768</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="H70" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I70" s="43"/>
+      <c r="J70" s="41"/>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="28" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" s="41" t="s">
         <v>632</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="42" t="s">
         <v>2769</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I71" s="43"/>
+      <c r="J71" s="41"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="28" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="41" t="s">
         <v>643</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="42" t="s">
         <v>2770</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I72" s="43"/>
+      <c r="J72" s="41"/>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="28" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="42" t="s">
         <v>2771</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="31" t="s">
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I73" s="43"/>
+      <c r="J73" s="41"/>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="28" t="s">
+    <row r="74" spans="1:10">
+      <c r="A74" s="41" t="s">
         <v>658</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="53" t="s">
         <v>2627</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="45">
         <v>42648</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G74" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I74" s="41">
+      <c r="I74" s="51">
         <v>79065306002053</v>
       </c>
+      <c r="J74" s="41"/>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="28" t="s">
+    <row r="75" spans="1:10">
+      <c r="A75" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="C75" s="42"/>
+      <c r="D75" s="41" t="s">
         <v>75</v>
       </c>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="41"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="28" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="42" t="s">
         <v>2772</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="H76" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I76" s="43"/>
+      <c r="J76" s="41"/>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="28" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" s="41" t="s">
         <v>684</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="53" t="s">
         <v>2628</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="45">
         <v>42648</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I77" s="41">
+      <c r="I77" s="51">
         <v>79007448982053</v>
       </c>
+      <c r="J77" s="41"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="28" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="42" t="s">
         <v>2773</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I78" s="43"/>
+      <c r="J78" s="41"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="28" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" s="41" t="s">
         <v>704</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="42" t="s">
         <v>2774</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="31" t="s">
+      <c r="E79" s="41"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I79" s="43"/>
+      <c r="J79" s="41"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="28" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" s="41" t="s">
         <v>712</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="42" t="s">
         <v>2775</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I80" s="43"/>
+      <c r="J80" s="41"/>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="28" t="s">
+    <row r="81" spans="1:10">
+      <c r="A81" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="53" t="s">
         <v>2641</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="41" t="s">
         <v>726</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E81" s="41">
         <v>49.4</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="45">
         <v>42646</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="G81" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I81" s="41">
+      <c r="I81" s="51">
         <v>78984135392053</v>
       </c>
+      <c r="J81" s="41"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="28" t="s">
+    <row r="82" spans="1:10">
+      <c r="A82" s="41" t="s">
         <v>734</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="41" t="s">
         <v>737</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="53" t="s">
         <v>2642</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="41" t="s">
         <v>726</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="41">
         <v>49.4</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="45">
         <v>42646</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="G82" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I82" s="41">
+      <c r="I82" s="51">
         <v>78983939572053</v>
       </c>
+      <c r="J82" s="41"/>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="28" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" s="41" t="s">
         <v>743</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="41" t="s">
         <v>746</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="53" t="s">
         <v>2629</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="45">
         <v>42648</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="G83" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="H83" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I83" s="41">
+      <c r="I83" s="51">
         <v>79007601342053</v>
       </c>
+      <c r="J83" s="41"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="28" t="s">
+    <row r="84" spans="1:10">
+      <c r="A84" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="42" t="s">
         <v>2776</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I84" s="43"/>
+      <c r="J84" s="41"/>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="28" t="s">
+    <row r="85" spans="1:10">
+      <c r="A85" s="41" t="s">
         <v>762</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="41" t="s">
         <v>766</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="42" t="s">
         <v>2777</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I85" s="43"/>
+      <c r="J85" s="41"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="28" t="s">
+    <row r="86" spans="1:10">
+      <c r="A86" s="41" t="s">
         <v>773</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="53" t="s">
         <v>2643</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="41" t="s">
         <v>776</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="41">
         <v>6.41</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="45">
         <v>42646</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H86" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I86" s="41">
+      <c r="I86" s="51">
         <v>78953964792053</v>
       </c>
+      <c r="J86" s="41"/>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="28" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" s="41" t="s">
         <v>783</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="41" t="s">
         <v>787</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="42" t="s">
         <v>2778</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G87" s="31" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I87" s="43"/>
+      <c r="J87" s="41"/>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="28" t="s">
+    <row r="88" spans="1:10">
+      <c r="A88" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="41" t="s">
         <v>796</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="42" t="s">
         <v>2779</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="H88" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I88" s="43"/>
+      <c r="J88" s="41"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="28" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" s="41" t="s">
         <v>801</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="41" t="s">
         <v>804</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="42" t="s">
         <v>2780</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I89" s="43"/>
+      <c r="J89" s="41"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="28" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" s="41" t="s">
         <v>809</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="41" t="s">
         <v>812</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="53" t="s">
         <v>2837</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="31" t="s">
+      <c r="E90" s="41"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="H90" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I90" s="43"/>
+      <c r="J90" s="41"/>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="28" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" s="41" t="s">
         <v>817</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="41" t="s">
         <v>821</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="42" t="s">
         <v>2781</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="H91" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I91" s="43"/>
+      <c r="J91" s="41"/>
     </row>
-    <row r="92" spans="1:9" s="46" customFormat="1">
-      <c r="A92" s="46" t="s">
+    <row r="92" spans="1:10" s="34" customFormat="1">
+      <c r="A92" s="56" t="s">
         <v>827</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="56" t="s">
         <v>830</v>
       </c>
-      <c r="C92" s="47">
+      <c r="C92" s="57">
         <v>3208165332</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E92" s="49">
+      <c r="E92" s="56">
         <v>56.05</v>
       </c>
-      <c r="F92" s="50">
+      <c r="F92" s="58">
         <v>42645</v>
       </c>
-      <c r="G92" s="49" t="s">
+      <c r="G92" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H92" s="49" t="s">
+      <c r="H92" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I92" s="51">
+      <c r="I92" s="59">
         <v>79021031622053</v>
       </c>
+      <c r="J92" s="56"/>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="28" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" s="41" t="s">
         <v>835</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="41" t="s">
         <v>838</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="53" t="s">
         <v>2644</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="31">
+      <c r="E93" s="41">
         <v>17</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="45">
         <v>42646</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="G93" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I93" s="41">
+      <c r="I93" s="51">
         <v>78983616442053</v>
       </c>
+      <c r="J93" s="41"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="28" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="53" t="s">
         <v>2635</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="31">
+      <c r="E94" s="41">
         <v>16.309999999999999</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="45">
         <v>42648</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G94" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="H94" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I94" s="41">
+      <c r="I94" s="51">
         <v>79104673712053</v>
       </c>
+      <c r="J94" s="41"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="28" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="41" t="s">
         <v>857</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="42" t="s">
         <v>2782</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="H95" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I95" s="43"/>
+      <c r="J95" s="41"/>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="28" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" s="41" t="s">
         <v>863</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="53" t="s">
         <v>2647</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="31">
+      <c r="E96" s="41">
         <v>60</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F96" s="45">
         <v>42643</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="G96" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="H96" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I96" s="41">
+      <c r="I96" s="51">
         <v>78897332392053</v>
       </c>
+      <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="41" t="s">
         <v>871</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="41" t="s">
         <v>877</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="53" t="s">
         <v>2646</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="E97" s="31">
+      <c r="E97" s="41">
         <v>65</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="45">
         <v>42643</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="G97" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I97" s="41">
+      <c r="I97" s="51">
         <v>78956757092053</v>
       </c>
+      <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="41" t="s">
         <v>886</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="53" t="s">
         <v>2648</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E98" s="31">
+      <c r="E98" s="41">
         <v>53</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="45">
         <v>42643</v>
       </c>
-      <c r="G98" s="31" t="s">
+      <c r="G98" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H98" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I98" s="41">
+      <c r="I98" s="51">
         <v>78914585422053</v>
       </c>
+      <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="53" t="s">
         <v>2645</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="41" t="s">
         <v>776</v>
       </c>
-      <c r="E99" s="31">
+      <c r="E99" s="41">
         <v>6.41</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F99" s="45">
         <v>42646</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="G99" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H99" s="31" t="s">
+      <c r="H99" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I99" s="41">
+      <c r="I99" s="51">
         <v>78953249172053</v>
       </c>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="B100" s="41"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="41" t="s">
         <v>114</v>
       </c>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="41"/>
     </row>
-    <row r="101" spans="1:10" s="52" customFormat="1" ht="17.25">
-      <c r="A101" s="52" t="s">
+    <row r="101" spans="1:10" s="35" customFormat="1" ht="17.25">
+      <c r="A101" s="60" t="s">
         <v>908</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="60" t="s">
         <v>916</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="61" t="s">
         <v>2840</v>
       </c>
-      <c r="D101" s="54" t="s">
+      <c r="D101" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55" t="s">
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60" t="s">
         <v>2861</v>
       </c>
-      <c r="I101" s="56"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="60"/>
     </row>
-    <row r="102" spans="1:10" s="52" customFormat="1">
-      <c r="A102" s="52" t="s">
+    <row r="102" spans="1:10" s="35" customFormat="1">
+      <c r="A102" s="60" t="s">
         <v>908</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="54" t="s">
+      <c r="B102" s="60"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="60" t="s">
         <v>922</v>
       </c>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="56"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="60"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="53" t="s">
         <v>2649</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="E103" s="31">
+      <c r="E103" s="41">
         <v>18</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F103" s="45">
         <v>42641</v>
       </c>
-      <c r="G103" s="31" t="s">
+      <c r="G103" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H103" s="31" t="s">
+      <c r="H103" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I103" s="41">
+      <c r="I103" s="51">
         <v>78864896662053</v>
       </c>
+      <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" ht="17.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="64" t="s">
         <v>2839</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41" t="s">
         <v>2861</v>
       </c>
+      <c r="I104" s="43"/>
+      <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="41" t="s">
         <v>948</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="53" t="s">
         <v>2651</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="E105" s="31">
+      <c r="E105" s="41">
         <v>15.11</v>
       </c>
-      <c r="F105" s="34">
+      <c r="F105" s="45">
         <v>42640</v>
       </c>
-      <c r="G105" s="31" t="s">
+      <c r="G105" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I105" s="41">
+      <c r="I105" s="51">
         <v>78842504762053</v>
       </c>
+      <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="41" t="s">
         <v>956</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="41" t="s">
         <v>959</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="53" t="s">
         <v>2650</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="31">
+      <c r="E106" s="41">
         <v>36</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="45">
         <v>42641</v>
       </c>
-      <c r="G106" s="31" t="s">
+      <c r="G106" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I106" s="41">
+      <c r="I106" s="51">
         <v>78802168922053</v>
       </c>
+      <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="41" t="s">
         <v>967</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="53" t="s">
         <v>2658</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E107" s="31">
+      <c r="E107" s="41">
         <v>41</v>
       </c>
-      <c r="F107" s="34">
+      <c r="F107" s="45">
         <v>42640</v>
       </c>
-      <c r="G107" s="31" t="s">
+      <c r="G107" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H107" s="31" t="s">
+      <c r="H107" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I107" s="41">
+      <c r="I107" s="51">
         <v>78867392002053</v>
       </c>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="41" t="s">
         <v>972</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="41" t="s">
         <v>976</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="65" t="s">
         <v>2659</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="31">
+      <c r="E108" s="41">
         <v>41</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F108" s="45">
         <v>42640</v>
       </c>
-      <c r="G108" s="31" t="s">
+      <c r="G108" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H108" s="31" t="s">
+      <c r="H108" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I108" s="41">
+      <c r="I108" s="51">
         <v>78773163972053</v>
       </c>
+      <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="41" t="s">
         <v>985</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="41" t="s">
         <v>989</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="53" t="s">
         <v>2583</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="31">
+      <c r="E109" s="41">
         <v>17</v>
       </c>
-      <c r="F109" s="34">
+      <c r="F109" s="45">
         <v>42635</v>
       </c>
-      <c r="G109" s="31" t="s">
+      <c r="G109" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H109" s="31" t="s">
+      <c r="H109" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I109" s="35">
+      <c r="I109" s="46">
         <v>78660370712053</v>
       </c>
-      <c r="J109" s="60" t="s">
+      <c r="J109" s="66" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="41" t="s">
         <v>994</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="53" t="s">
         <v>2652</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E110" s="31">
+      <c r="E110" s="41">
         <v>22</v>
       </c>
-      <c r="F110" s="34">
+      <c r="F110" s="45">
         <v>42640</v>
       </c>
-      <c r="G110" s="31" t="s">
+      <c r="G110" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H110" s="31" t="s">
+      <c r="H110" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I110" s="41">
+      <c r="I110" s="51">
         <v>78885352892053</v>
       </c>
+      <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="65" t="s">
         <v>2653</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="E111" s="31">
+      <c r="E111" s="41">
         <v>15.11</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F111" s="45">
         <v>42640</v>
       </c>
-      <c r="G111" s="31" t="s">
+      <c r="G111" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="H111" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I111" s="41">
+      <c r="I111" s="51">
         <v>78826891622053</v>
       </c>
+      <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="41" t="s">
         <v>1018</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="54" t="s">
         <v>2654</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="E112" s="31">
+      <c r="E112" s="41">
         <v>15.11</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="45">
         <v>42640</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="G112" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H112" s="31" t="s">
+      <c r="H112" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I112" s="41">
+      <c r="I112" s="51">
         <v>78789766202053</v>
       </c>
+      <c r="J112" s="41"/>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="28" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="41" t="s">
         <v>1028</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="54" t="s">
         <v>2655</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="E113" s="31">
+      <c r="E113" s="41">
         <v>16.989999999999998</v>
       </c>
-      <c r="F113" s="34">
+      <c r="F113" s="45">
         <v>42640</v>
       </c>
-      <c r="G113" s="31" t="s">
+      <c r="G113" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H113" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I113" s="41">
+      <c r="I113" s="51">
         <v>78789367082053</v>
       </c>
+      <c r="J113" s="41"/>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="28" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="41" t="s">
         <v>1036</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="41" t="s">
         <v>1039</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="65" t="s">
         <v>2661</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="31">
+      <c r="E114" s="41">
         <v>45.4</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="45">
         <v>42639</v>
       </c>
-      <c r="G114" s="31" t="s">
+      <c r="G114" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H114" s="31" t="s">
+      <c r="H114" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I114" s="41">
+      <c r="I114" s="51">
         <v>78779415922053</v>
       </c>
+      <c r="J114" s="41"/>
     </row>
-    <row r="115" spans="1:9" s="46" customFormat="1">
-      <c r="A115" s="46" t="s">
+    <row r="115" spans="1:10" s="34" customFormat="1">
+      <c r="A115" s="56" t="s">
         <v>1044</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="56" t="s">
         <v>1047</v>
       </c>
-      <c r="C115" s="47" t="s">
+      <c r="C115" s="57" t="s">
         <v>2656</v>
       </c>
-      <c r="D115" s="48" t="s">
+      <c r="D115" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E115" s="49">
+      <c r="E115" s="56">
         <v>16.309999999999999</v>
       </c>
-      <c r="F115" s="50">
+      <c r="F115" s="58">
         <v>42640</v>
       </c>
-      <c r="G115" s="49" t="s">
+      <c r="G115" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H115" s="49" t="s">
+      <c r="H115" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I115" s="51">
+      <c r="I115" s="59">
         <v>78868231262053</v>
       </c>
+      <c r="J115" s="56"/>
     </row>
-    <row r="116" spans="1:9" s="46" customFormat="1">
-      <c r="A116" s="46" t="s">
+    <row r="116" spans="1:10" s="34" customFormat="1">
+      <c r="A116" s="56" t="s">
         <v>1054</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="56" t="s">
         <v>1058</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C116" s="57" t="s">
         <v>2665</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D116" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E116" s="49">
+      <c r="E116" s="56">
         <v>60</v>
       </c>
-      <c r="F116" s="50">
+      <c r="F116" s="58">
         <v>42639</v>
       </c>
-      <c r="G116" s="49" t="s">
+      <c r="G116" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H116" s="49" t="s">
+      <c r="H116" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I116" s="51">
+      <c r="I116" s="59">
         <v>78789866972053</v>
       </c>
+      <c r="J116" s="56"/>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="28" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" s="41" t="s">
         <v>1067</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="41" t="s">
         <v>1072</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C117" s="65" t="s">
         <v>2662</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E117" s="31">
+      <c r="E117" s="41">
         <v>45.4</v>
       </c>
-      <c r="F117" s="34">
+      <c r="F117" s="45">
         <v>42639</v>
       </c>
-      <c r="G117" s="31" t="s">
+      <c r="G117" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I117" s="41">
+      <c r="I117" s="51">
         <v>78779259582053</v>
       </c>
+      <c r="J117" s="41"/>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="28" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" s="41" t="s">
         <v>1078</v>
       </c>
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="41" t="s">
         <v>1082</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="53" t="s">
         <v>2657</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="41" t="s">
         <v>1081</v>
       </c>
-      <c r="E118" s="31">
+      <c r="E118" s="41">
         <v>17.36</v>
       </c>
-      <c r="F118" s="34">
+      <c r="F118" s="45">
         <v>42640</v>
       </c>
-      <c r="G118" s="31" t="s">
+      <c r="G118" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I118" s="41">
+      <c r="I118" s="51">
         <v>78867878002053</v>
       </c>
+      <c r="J118" s="41"/>
     </row>
-    <row r="119" spans="1:9" s="46" customFormat="1">
-      <c r="A119" s="46" t="s">
+    <row r="119" spans="1:10" s="34" customFormat="1">
+      <c r="A119" s="56" t="s">
         <v>1087</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="56" t="s">
         <v>1091</v>
       </c>
-      <c r="C119" s="47" t="s">
+      <c r="C119" s="57" t="s">
         <v>2668</v>
       </c>
-      <c r="D119" s="48" t="s">
+      <c r="D119" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="56">
         <v>17</v>
       </c>
-      <c r="F119" s="50">
+      <c r="F119" s="58">
         <v>42638</v>
       </c>
-      <c r="G119" s="49" t="s">
+      <c r="G119" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H119" s="49" t="s">
+      <c r="H119" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I119" s="51">
+      <c r="I119" s="59">
         <v>78747099182053</v>
       </c>
+      <c r="J119" s="56"/>
     </row>
-    <row r="120" spans="1:9" s="46" customFormat="1">
-      <c r="A120" s="46" t="s">
+    <row r="120" spans="1:10" s="34" customFormat="1">
+      <c r="A120" s="56" t="s">
         <v>1096</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="56" t="s">
         <v>1100</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C120" s="57" t="s">
         <v>2666</v>
       </c>
-      <c r="D120" s="48" t="s">
+      <c r="D120" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="56">
         <v>60</v>
       </c>
-      <c r="F120" s="50">
+      <c r="F120" s="58">
         <v>42639</v>
       </c>
-      <c r="G120" s="49" t="s">
+      <c r="G120" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H120" s="49" t="s">
+      <c r="H120" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I120" s="51">
+      <c r="I120" s="59">
         <v>78741729382053</v>
       </c>
+      <c r="J120" s="56"/>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="28" t="s">
+    <row r="121" spans="1:10">
+      <c r="A121" s="41" t="s">
         <v>1105</v>
       </c>
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="41" t="s">
         <v>1108</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="65" t="s">
         <v>2663</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E121" s="31">
+      <c r="E121" s="41">
         <v>45.4</v>
       </c>
-      <c r="F121" s="34">
+      <c r="F121" s="45">
         <v>42639</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="G121" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H121" s="41" t="s">
         <v>2860</v>
       </c>
-      <c r="I121" s="41">
+      <c r="I121" s="51">
         <v>78836234402053</v>
       </c>
+      <c r="J121" s="41"/>
     </row>
-    <row r="122" spans="1:9" s="46" customFormat="1">
-      <c r="A122" s="46" t="s">
+    <row r="122" spans="1:10" s="34" customFormat="1">
+      <c r="A122" s="56" t="s">
         <v>1113</v>
       </c>
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="56" t="s">
         <v>1118</v>
       </c>
-      <c r="C122" s="47" t="s">
+      <c r="C122" s="57" t="s">
         <v>2660</v>
       </c>
-      <c r="D122" s="48" t="s">
+      <c r="D122" s="56" t="s">
         <v>1117</v>
       </c>
-      <c r="E122" s="49">
+      <c r="E122" s="56">
         <v>66.239999999999995</v>
       </c>
-      <c r="F122" s="50">
+      <c r="F122" s="58">
         <v>42640</v>
       </c>
-      <c r="G122" s="49" t="s">
+      <c r="G122" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H122" s="49" t="s">
+      <c r="H122" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I122" s="51">
+      <c r="I122" s="59">
         <v>78823424622053</v>
       </c>
+      <c r="J122" s="56"/>
     </row>
-    <row r="123" spans="1:9" s="46" customFormat="1">
-      <c r="A123" s="46" t="s">
+    <row r="123" spans="1:10" s="34" customFormat="1">
+      <c r="A123" s="56" t="s">
         <v>1123</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="56" t="s">
         <v>1126</v>
       </c>
-      <c r="C123" s="47" t="s">
+      <c r="C123" s="57" t="s">
         <v>2672</v>
       </c>
-      <c r="D123" s="48" t="s">
+      <c r="D123" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="56">
         <v>18</v>
       </c>
-      <c r="F123" s="50">
+      <c r="F123" s="58">
         <v>42637</v>
       </c>
-      <c r="G123" s="49" t="s">
+      <c r="G123" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H123" s="49" t="s">
+      <c r="H123" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I123" s="51">
+      <c r="I123" s="59">
         <v>78684124322053</v>
       </c>
+      <c r="J123" s="56"/>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="28" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" s="41" t="s">
         <v>1132</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="41" t="s">
         <v>1135</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="53" t="s">
         <v>2667</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E124" s="31">
+      <c r="E124" s="41">
         <v>60</v>
       </c>
-      <c r="F124" s="34">
+      <c r="F124" s="45">
         <v>42639</v>
       </c>
-      <c r="G124" s="31" t="s">
+      <c r="G124" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="H124" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I124" s="41">
+      <c r="I124" s="51">
         <v>78789781622053</v>
       </c>
+      <c r="J124" s="41"/>
     </row>
-    <row r="125" spans="1:9" s="46" customFormat="1">
-      <c r="A125" s="46" t="s">
+    <row r="125" spans="1:10" s="34" customFormat="1">
+      <c r="A125" s="56" t="s">
         <v>1142</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="56" t="s">
         <v>1145</v>
       </c>
-      <c r="C125" s="70" t="s">
+      <c r="C125" s="67" t="s">
         <v>2664</v>
       </c>
-      <c r="D125" s="48" t="s">
+      <c r="D125" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E125" s="49">
+      <c r="E125" s="56">
         <v>259</v>
       </c>
-      <c r="F125" s="50">
+      <c r="F125" s="58">
         <v>42639</v>
       </c>
-      <c r="G125" s="49" t="s">
+      <c r="G125" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H125" s="49" t="s">
+      <c r="H125" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I125" s="51">
+      <c r="I125" s="59">
         <v>78836030712053</v>
       </c>
+      <c r="J125" s="56"/>
     </row>
-    <row r="126" spans="1:9" s="46" customFormat="1">
-      <c r="A126" s="46" t="s">
+    <row r="126" spans="1:10" s="34" customFormat="1">
+      <c r="A126" s="56" t="s">
         <v>1142</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="56" t="s">
         <v>1145</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C126" s="57" t="s">
         <v>2680</v>
       </c>
-      <c r="D126" s="48" t="s">
+      <c r="D126" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="56">
         <v>60</v>
       </c>
-      <c r="F126" s="50">
+      <c r="F126" s="58">
         <v>42634</v>
       </c>
-      <c r="G126" s="49" t="s">
+      <c r="G126" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H126" s="49" t="s">
+      <c r="H126" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I126" s="51">
+      <c r="I126" s="59">
         <v>78714919272053</v>
       </c>
+      <c r="J126" s="56"/>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="28" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" s="41" t="s">
         <v>1151</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="41" t="s">
         <v>989</v>
       </c>
-      <c r="C127" s="61" t="s">
+      <c r="C127" s="68" t="s">
         <v>2583</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="E127" s="31">
+      <c r="E127" s="41">
         <v>17</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="45">
         <v>42635</v>
       </c>
-      <c r="G127" s="31" t="s">
+      <c r="G127" s="41" t="s">
         <v>2623</v>
       </c>
-      <c r="H127" s="31" t="s">
+      <c r="H127" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I127" s="41">
+      <c r="I127" s="51">
         <v>78660370712053</v>
       </c>
+      <c r="J127" s="41"/>
     </row>
-    <row r="128" spans="1:9" s="46" customFormat="1">
-      <c r="A128" s="46" t="s">
+    <row r="128" spans="1:10" s="34" customFormat="1">
+      <c r="A128" s="56" t="s">
         <v>1155</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="56" t="s">
         <v>1159</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="69" t="s">
         <v>2584</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D128" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="56">
         <v>16.309999999999999</v>
       </c>
-      <c r="F128" s="50">
+      <c r="F128" s="58">
         <v>42635</v>
       </c>
-      <c r="G128" s="49" t="s">
+      <c r="G128" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H128" s="49" t="s">
+      <c r="H128" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I128" s="51">
+      <c r="I128" s="59">
         <v>78626121872053</v>
       </c>
+      <c r="J128" s="56"/>
     </row>
-    <row r="129" spans="1:10" s="63" customFormat="1">
-      <c r="A129" s="63" t="s">
+    <row r="129" spans="1:10" s="36" customFormat="1">
+      <c r="A129" s="70" t="s">
         <v>1164</v>
       </c>
-      <c r="B129" s="63" t="s">
+      <c r="B129" s="70" t="s">
         <v>1168</v>
       </c>
-      <c r="C129" s="64"/>
-      <c r="D129" s="65" t="s">
+      <c r="C129" s="71"/>
+      <c r="D129" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="E129" s="66"/>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="63" t="s">
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="70" t="s">
         <v>2876</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="46" customFormat="1">
-      <c r="A130" s="46" t="s">
+    <row r="130" spans="1:10" s="34" customFormat="1">
+      <c r="A130" s="56" t="s">
         <v>1176</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="56" t="s">
         <v>1179</v>
       </c>
-      <c r="C130" s="47" t="s">
+      <c r="C130" s="57" t="s">
         <v>2679</v>
       </c>
-      <c r="D130" s="48" t="s">
+      <c r="D130" s="56" t="s">
         <v>875</v>
       </c>
-      <c r="E130" s="49">
+      <c r="E130" s="56">
         <v>65</v>
       </c>
-      <c r="F130" s="50">
+      <c r="F130" s="58">
         <v>42634</v>
       </c>
-      <c r="G130" s="49" t="s">
+      <c r="G130" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H130" s="49" t="s">
+      <c r="H130" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I130" s="51">
+      <c r="I130" s="59">
         <v>78715157562053</v>
       </c>
+      <c r="J130" s="56"/>
     </row>
-    <row r="131" spans="1:10" s="46" customFormat="1">
-      <c r="A131" s="46" t="s">
+    <row r="131" spans="1:10" s="34" customFormat="1">
+      <c r="A131" s="56" t="s">
         <v>1185</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="56" t="s">
         <v>1189</v>
       </c>
-      <c r="C131" s="47" t="s">
+      <c r="C131" s="57" t="s">
         <v>2585</v>
       </c>
-      <c r="D131" s="48" t="s">
+      <c r="D131" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="56">
         <v>14</v>
       </c>
-      <c r="F131" s="50">
+      <c r="F131" s="58">
         <v>42633</v>
       </c>
-      <c r="G131" s="49" t="s">
+      <c r="G131" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H131" s="49" t="s">
+      <c r="H131" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I131" s="51">
+      <c r="I131" s="59">
         <v>78643021742053</v>
       </c>
+      <c r="J131" s="56"/>
     </row>
-    <row r="132" spans="1:10" s="46" customFormat="1">
-      <c r="A132" s="46" t="s">
+    <row r="132" spans="1:10" s="34" customFormat="1">
+      <c r="A132" s="56" t="s">
         <v>1195</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="56" t="s">
         <v>1198</v>
       </c>
-      <c r="C132" s="47">
+      <c r="C132" s="57">
         <v>7766243030</v>
       </c>
-      <c r="D132" s="48" t="s">
+      <c r="D132" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E132" s="49">
+      <c r="E132" s="56">
         <v>60</v>
       </c>
-      <c r="F132" s="50">
+      <c r="F132" s="58">
         <v>42634</v>
       </c>
-      <c r="G132" s="49" t="s">
+      <c r="G132" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H132" s="49" t="s">
+      <c r="H132" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I132" s="51">
+      <c r="I132" s="59">
         <v>78621207272053</v>
       </c>
+      <c r="J132" s="56"/>
     </row>
-    <row r="133" spans="1:10" s="63" customFormat="1">
-      <c r="A133" s="63" t="s">
+    <row r="133" spans="1:10" s="36" customFormat="1">
+      <c r="A133" s="70" t="s">
         <v>1202</v>
       </c>
-      <c r="B133" s="63" t="s">
+      <c r="B133" s="70" t="s">
         <v>1205</v>
       </c>
-      <c r="C133" s="98" t="s">
+      <c r="C133" s="73" t="s">
         <v>2586</v>
       </c>
-      <c r="D133" s="65" t="s">
+      <c r="D133" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66" t="s">
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70" t="s">
         <v>2861</v>
       </c>
-      <c r="I133" s="67"/>
-      <c r="J133" s="63" t="s">
+      <c r="I133" s="72"/>
+      <c r="J133" s="70" t="s">
         <v>2874</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="46" customFormat="1">
-      <c r="A134" s="46" t="s">
+    <row r="134" spans="1:10" s="34" customFormat="1">
+      <c r="A134" s="56" t="s">
         <v>1211</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="56" t="s">
         <v>1214</v>
       </c>
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="57" t="s">
         <v>2873</v>
       </c>
-      <c r="D134" s="48" t="s">
+      <c r="D134" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49" t="s">
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I134" s="68"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="56"/>
     </row>
-    <row r="135" spans="1:10" s="46" customFormat="1">
-      <c r="A135" s="46" t="s">
+    <row r="135" spans="1:10" s="34" customFormat="1">
+      <c r="A135" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="56" t="s">
         <v>1225</v>
       </c>
-      <c r="C135" s="47" t="s">
+      <c r="C135" s="57" t="s">
         <v>2673</v>
       </c>
-      <c r="D135" s="48" t="s">
+      <c r="D135" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="E135" s="49">
+      <c r="E135" s="56">
         <v>20</v>
       </c>
-      <c r="F135" s="50">
+      <c r="F135" s="58">
         <v>42637</v>
       </c>
-      <c r="G135" s="49" t="s">
+      <c r="G135" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H135" s="49" t="s">
+      <c r="H135" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I135" s="51">
+      <c r="I135" s="59">
         <v>78683807342053</v>
       </c>
+      <c r="J135" s="56"/>
     </row>
-    <row r="136" spans="1:10" s="46" customFormat="1">
-      <c r="A136" s="46" t="s">
+    <row r="136" spans="1:10" s="34" customFormat="1">
+      <c r="A136" s="56" t="s">
         <v>1231</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="56" t="s">
         <v>1235</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="57" t="s">
         <v>2590</v>
       </c>
-      <c r="D136" s="48" t="s">
+      <c r="D136" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="56">
         <v>18</v>
       </c>
-      <c r="F136" s="50">
+      <c r="F136" s="58">
         <v>42633</v>
       </c>
-      <c r="G136" s="49" t="s">
+      <c r="G136" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H136" s="49" t="s">
+      <c r="H136" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I136" s="51">
+      <c r="I136" s="59">
         <v>78597377812053</v>
       </c>
+      <c r="J136" s="56"/>
     </row>
-    <row r="137" spans="1:10" s="46" customFormat="1">
-      <c r="A137" s="46" t="s">
+    <row r="137" spans="1:10" s="34" customFormat="1">
+      <c r="A137" s="56" t="s">
         <v>1240</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="56" t="s">
         <v>1244</v>
       </c>
-      <c r="C137" s="62" t="s">
+      <c r="C137" s="69" t="s">
         <v>2588</v>
       </c>
-      <c r="D137" s="48" t="s">
+      <c r="D137" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E137" s="49">
+      <c r="E137" s="56">
         <v>34.4</v>
       </c>
-      <c r="F137" s="50">
+      <c r="F137" s="58">
         <v>42634</v>
       </c>
-      <c r="G137" s="49" t="s">
+      <c r="G137" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H137" s="49" t="s">
+      <c r="H137" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I137" s="51">
+      <c r="I137" s="59">
         <v>78706877592053</v>
       </c>
+      <c r="J137" s="56"/>
     </row>
-    <row r="138" spans="1:10" s="46" customFormat="1">
-      <c r="A138" s="46" t="s">
+    <row r="138" spans="1:10" s="34" customFormat="1">
+      <c r="A138" s="56" t="s">
         <v>1250</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="56" t="s">
         <v>1253</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="57" t="s">
         <v>2589</v>
       </c>
-      <c r="D138" s="48" t="s">
+      <c r="D138" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49" t="s">
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I138" s="68"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="56"/>
     </row>
-    <row r="139" spans="1:10" s="46" customFormat="1">
-      <c r="A139" s="46" t="s">
+    <row r="139" spans="1:10" s="34" customFormat="1">
+      <c r="A139" s="56" t="s">
         <v>1259</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="56" t="s">
         <v>1262</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="57" t="s">
         <v>2590</v>
       </c>
-      <c r="D139" s="48" t="s">
+      <c r="D139" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="E139" s="49">
+      <c r="E139" s="56">
         <v>18</v>
       </c>
-      <c r="F139" s="50">
+      <c r="F139" s="58">
         <v>42632</v>
       </c>
-      <c r="G139" s="49" t="s">
+      <c r="G139" s="56" t="s">
         <v>2682</v>
       </c>
-      <c r="H139" s="69" t="s">
+      <c r="H139" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I139" s="51">
+      <c r="I139" s="59">
         <v>78627995492053</v>
       </c>
+      <c r="J139" s="56"/>
     </row>
-    <row r="140" spans="1:10" s="46" customFormat="1">
-      <c r="A140" s="46" t="s">
+    <row r="140" spans="1:10" s="34" customFormat="1">
+      <c r="A140" s="56" t="s">
         <v>1268</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="56" t="s">
         <v>1271</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="57" t="s">
         <v>2591</v>
       </c>
-      <c r="D140" s="48" t="s">
+      <c r="D140" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="49"/>
-      <c r="H140" s="69" t="s">
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I140" s="68"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="56"/>
     </row>
-    <row r="141" spans="1:10" s="46" customFormat="1">
-      <c r="A141" s="46" t="s">
+    <row r="141" spans="1:10" s="34" customFormat="1">
+      <c r="A141" s="56" t="s">
         <v>1277</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="56" t="s">
         <v>1280</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="57" t="s">
         <v>2592</v>
       </c>
-      <c r="D141" s="48" t="s">
+      <c r="D141" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="69" t="s">
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I141" s="68"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="56"/>
     </row>
-    <row r="142" spans="1:10" s="46" customFormat="1" ht="18.75">
-      <c r="A142" s="46" t="s">
+    <row r="142" spans="1:10" s="34" customFormat="1" ht="18.75">
+      <c r="A142" s="56" t="s">
         <v>1286</v>
       </c>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="56" t="s">
         <v>1290</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="57" t="s">
         <v>2872</v>
       </c>
-      <c r="D142" s="48" t="s">
+      <c r="D142" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E142" s="49">
+      <c r="E142" s="56">
         <v>60</v>
       </c>
-      <c r="F142" s="50">
+      <c r="F142" s="58">
         <v>42631</v>
       </c>
-      <c r="G142" s="49" t="s">
+      <c r="G142" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H142" s="69" t="s">
+      <c r="H142" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I142" s="51">
+      <c r="I142" s="59">
         <v>78549148262053</v>
       </c>
+      <c r="J142" s="56"/>
     </row>
-    <row r="143" spans="1:10" s="46" customFormat="1">
-      <c r="A143" s="46" t="s">
+    <row r="143" spans="1:10" s="34" customFormat="1">
+      <c r="A143" s="56" t="s">
         <v>1295</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="56" t="s">
         <v>1298</v>
       </c>
-      <c r="C143" s="70" t="s">
+      <c r="C143" s="67" t="s">
         <v>2593</v>
       </c>
-      <c r="D143" s="48" t="s">
+      <c r="D143" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="69" t="s">
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I143" s="68"/>
+      <c r="I143" s="74"/>
+      <c r="J143" s="56"/>
     </row>
-    <row r="144" spans="1:10" s="46" customFormat="1">
-      <c r="A144" s="46" t="s">
+    <row r="144" spans="1:10" s="34" customFormat="1">
+      <c r="A144" s="56" t="s">
         <v>1303</v>
       </c>
-      <c r="B144" s="46" t="s">
+      <c r="B144" s="56" t="s">
         <v>1306</v>
       </c>
-      <c r="C144" s="47" t="s">
+      <c r="C144" s="57" t="s">
         <v>2594</v>
       </c>
-      <c r="D144" s="48" t="s">
+      <c r="D144" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E144" s="49">
+      <c r="E144" s="56">
         <v>14</v>
       </c>
-      <c r="F144" s="50">
+      <c r="F144" s="58">
         <v>42632</v>
       </c>
-      <c r="G144" s="49" t="s">
+      <c r="G144" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H144" s="69" t="s">
+      <c r="H144" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I144" s="51">
+      <c r="I144" s="59">
         <v>78629553662053</v>
       </c>
+      <c r="J144" s="56"/>
     </row>
-    <row r="145" spans="1:9" s="46" customFormat="1">
-      <c r="A145" s="46" t="s">
+    <row r="145" spans="1:10" s="34" customFormat="1">
+      <c r="A145" s="56" t="s">
         <v>1312</v>
       </c>
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="56" t="s">
         <v>1315</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="76" t="s">
         <v>2595</v>
       </c>
-      <c r="D145" s="48" t="s">
+      <c r="D145" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="69" t="s">
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I145" s="68"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="56"/>
     </row>
-    <row r="146" spans="1:9" s="46" customFormat="1">
-      <c r="A146" s="46" t="s">
+    <row r="146" spans="1:10" s="34" customFormat="1">
+      <c r="A146" s="56" t="s">
         <v>1321</v>
       </c>
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="56" t="s">
         <v>1325</v>
       </c>
-      <c r="C146" s="47" t="s">
+      <c r="C146" s="57" t="s">
         <v>2596</v>
       </c>
-      <c r="D146" s="48" t="s">
+      <c r="D146" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E146" s="49">
+      <c r="E146" s="56">
         <v>14</v>
       </c>
-      <c r="F146" s="50">
+      <c r="F146" s="58">
         <v>42630</v>
       </c>
-      <c r="G146" s="49" t="s">
+      <c r="G146" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H146" s="69" t="s">
+      <c r="H146" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I146" s="51">
+      <c r="I146" s="59">
         <v>78473444082053</v>
       </c>
+      <c r="J146" s="56"/>
     </row>
-    <row r="147" spans="1:9" s="46" customFormat="1">
-      <c r="A147" s="46" t="s">
+    <row r="147" spans="1:10" s="34" customFormat="1">
+      <c r="A147" s="56" t="s">
         <v>1331</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="56" t="s">
         <v>1335</v>
       </c>
-      <c r="C147" s="62" t="s">
+      <c r="C147" s="69" t="s">
         <v>2597</v>
       </c>
-      <c r="D147" s="48" t="s">
+      <c r="D147" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E147" s="49">
+      <c r="E147" s="56">
         <v>54</v>
       </c>
-      <c r="F147" s="50">
+      <c r="F147" s="58">
         <v>42630</v>
       </c>
-      <c r="G147" s="49" t="s">
+      <c r="G147" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H147" s="69" t="s">
+      <c r="H147" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I147" s="51">
+      <c r="I147" s="59">
         <v>78572637402053</v>
       </c>
+      <c r="J147" s="56"/>
     </row>
-    <row r="148" spans="1:9" s="46" customFormat="1">
-      <c r="A148" s="46" t="s">
+    <row r="148" spans="1:10" s="34" customFormat="1">
+      <c r="A148" s="56" t="s">
         <v>1342</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="56" t="s">
         <v>1345</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="C148" s="69" t="s">
         <v>2598</v>
       </c>
-      <c r="D148" s="48" t="s">
+      <c r="D148" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="E148" s="49">
+      <c r="E148" s="56">
         <v>20</v>
       </c>
-      <c r="F148" s="50">
+      <c r="F148" s="58">
         <v>42635</v>
       </c>
-      <c r="G148" s="49" t="s">
+      <c r="G148" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H148" s="69" t="s">
+      <c r="H148" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I148" s="51">
+      <c r="I148" s="59">
         <v>78719152592053</v>
       </c>
+      <c r="J148" s="56"/>
     </row>
-    <row r="149" spans="1:9" s="46" customFormat="1">
-      <c r="A149" s="46" t="s">
+    <row r="149" spans="1:10" s="34" customFormat="1">
+      <c r="A149" s="56" t="s">
         <v>1350</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="56" t="s">
         <v>1353</v>
       </c>
-      <c r="C149" s="71" t="s">
+      <c r="C149" s="76" t="s">
         <v>2599</v>
       </c>
-      <c r="D149" s="48" t="s">
+      <c r="D149" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="69" t="s">
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I149" s="68"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="56"/>
     </row>
-    <row r="150" spans="1:9" s="46" customFormat="1">
-      <c r="A150" s="46" t="s">
+    <row r="150" spans="1:10" s="34" customFormat="1">
+      <c r="A150" s="56" t="s">
         <v>1359</v>
       </c>
-      <c r="B150" s="46" t="s">
+      <c r="B150" s="56" t="s">
         <v>1362</v>
       </c>
-      <c r="C150" s="72" t="s">
+      <c r="C150" s="77" t="s">
         <v>2600</v>
       </c>
-      <c r="D150" s="48" t="s">
+      <c r="D150" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="69" t="s">
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="75" t="s">
         <v>2846</v>
       </c>
-      <c r="I150" s="68"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="56"/>
     </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="28" t="s">
+    <row r="151" spans="1:10">
+      <c r="A151" s="41" t="s">
         <v>1368</v>
       </c>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="41" t="s">
         <v>1372</v>
       </c>
-      <c r="C151" s="61" t="s">
+      <c r="C151" s="68" t="s">
         <v>2601</v>
       </c>
-      <c r="D151" s="30" t="s">
+      <c r="D151" s="41" t="s">
         <v>1371</v>
       </c>
-      <c r="E151" s="31">
+      <c r="E151" s="41">
         <v>5.63</v>
       </c>
-      <c r="F151" s="34">
+      <c r="F151" s="45">
         <v>42630</v>
       </c>
-      <c r="G151" s="31" t="s">
+      <c r="G151" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H151" s="31" t="s">
+      <c r="H151" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I151" s="41">
+      <c r="I151" s="51">
         <v>78512054082053</v>
       </c>
+      <c r="J151" s="41"/>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="28" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" s="41" t="s">
         <v>1368</v>
       </c>
-      <c r="B152" s="28" t="s">
+      <c r="B152" s="41" t="s">
         <v>1372</v>
       </c>
-      <c r="C152" s="61" t="s">
+      <c r="C152" s="68" t="s">
         <v>2601</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="41" t="s">
         <v>1380</v>
       </c>
-      <c r="E152" s="31">
+      <c r="E152" s="41">
         <v>88</v>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="45">
         <v>42629</v>
       </c>
-      <c r="G152" s="31" t="s">
+      <c r="G152" s="41" t="s">
         <v>2619</v>
       </c>
-      <c r="H152" s="31" t="s">
+      <c r="H152" s="41" t="s">
         <v>2861</v>
       </c>
-      <c r="I152" s="41">
+      <c r="I152" s="51">
         <v>78496700132053</v>
       </c>
+      <c r="J152" s="41"/>
     </row>
-    <row r="153" spans="1:9" s="46" customFormat="1">
-      <c r="A153" s="46" t="s">
+    <row r="153" spans="1:10" s="34" customFormat="1">
+      <c r="A153" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="56" t="s">
         <v>1372</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="57" t="s">
         <v>2745</v>
       </c>
-      <c r="D153" s="48" t="s">
+      <c r="D153" s="56" t="s">
         <v>2752</v>
       </c>
-      <c r="E153" s="49">
+      <c r="E153" s="56">
         <v>7.57</v>
       </c>
-      <c r="F153" s="50">
+      <c r="F153" s="58">
         <v>42607</v>
       </c>
-      <c r="G153" s="49" t="s">
+      <c r="G153" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H153" s="49" t="s">
+      <c r="H153" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I153" s="73">
+      <c r="I153" s="78">
         <v>77882618052053</v>
       </c>
+      <c r="J153" s="56"/>
     </row>
-    <row r="154" spans="1:9" s="46" customFormat="1">
-      <c r="A154" s="46" t="s">
+    <row r="154" spans="1:10" s="34" customFormat="1">
+      <c r="A154" s="56" t="s">
         <v>1381</v>
       </c>
-      <c r="B154" s="46" t="s">
+      <c r="B154" s="56" t="s">
         <v>1385</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="57" t="s">
         <v>2684</v>
       </c>
-      <c r="D154" s="48" t="s">
+      <c r="D154" s="56" t="s">
         <v>2685</v>
       </c>
-      <c r="E154" s="49">
+      <c r="E154" s="56">
         <v>60</v>
       </c>
-      <c r="F154" s="50">
+      <c r="F154" s="58">
         <v>42628</v>
       </c>
-      <c r="G154" s="49" t="s">
+      <c r="G154" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H154" s="49" t="s">
+      <c r="H154" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I154" s="51">
+      <c r="I154" s="59">
         <v>78495429712053</v>
       </c>
+      <c r="J154" s="56"/>
     </row>
-    <row r="155" spans="1:9" s="46" customFormat="1">
-      <c r="A155" s="46" t="s">
+    <row r="155" spans="1:10" s="34" customFormat="1">
+      <c r="A155" s="56" t="s">
         <v>1381</v>
       </c>
-      <c r="B155" s="46" t="s">
+      <c r="B155" s="56" t="s">
         <v>1385</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="69" t="s">
         <v>2618</v>
       </c>
-      <c r="D155" s="48" t="s">
+      <c r="D155" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E155" s="49">
+      <c r="E155" s="56">
         <v>17</v>
       </c>
-      <c r="F155" s="50">
+      <c r="F155" s="58">
         <v>42629</v>
       </c>
-      <c r="G155" s="49" t="s">
+      <c r="G155" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H155" s="49" t="s">
+      <c r="H155" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I155" s="73">
+      <c r="I155" s="78">
         <v>78495429712053</v>
       </c>
+      <c r="J155" s="56"/>
     </row>
-    <row r="156" spans="1:9" s="46" customFormat="1">
-      <c r="A156" s="46" t="s">
+    <row r="156" spans="1:10" s="34" customFormat="1">
+      <c r="A156" s="56" t="s">
         <v>1390</v>
       </c>
-      <c r="B156" s="46" t="s">
+      <c r="B156" s="56" t="s">
         <v>1393</v>
       </c>
-      <c r="C156" s="74" t="s">
+      <c r="C156" s="79" t="s">
         <v>2602</v>
       </c>
-      <c r="D156" s="48" t="s">
+      <c r="D156" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="E156" s="49">
+      <c r="E156" s="56">
         <v>17</v>
       </c>
-      <c r="F156" s="50">
+      <c r="F156" s="58">
         <v>42629</v>
       </c>
-      <c r="G156" s="49" t="s">
+      <c r="G156" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H156" s="49" t="s">
+      <c r="H156" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I156" s="51">
+      <c r="I156" s="59">
         <v>78508975142053</v>
       </c>
+      <c r="J156" s="56"/>
     </row>
-    <row r="157" spans="1:9" s="46" customFormat="1">
-      <c r="A157" s="46" t="s">
+    <row r="157" spans="1:10" s="34" customFormat="1">
+      <c r="A157" s="56" t="s">
         <v>1400</v>
       </c>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="56" t="s">
         <v>1405</v>
       </c>
-      <c r="C157" s="62">
+      <c r="C157" s="69">
         <v>3313814464</v>
       </c>
-      <c r="D157" s="48" t="s">
+      <c r="D157" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="49">
+      <c r="E157" s="56">
         <v>60</v>
       </c>
-      <c r="F157" s="50">
+      <c r="F157" s="58">
         <v>42628</v>
       </c>
-      <c r="G157" s="49" t="s">
+      <c r="G157" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H157" s="49" t="s">
+      <c r="H157" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I157" s="51">
+      <c r="I157" s="59">
         <v>78495427962053</v>
       </c>
+      <c r="J157" s="56"/>
     </row>
-    <row r="158" spans="1:9" s="46" customFormat="1">
-      <c r="A158" s="46" t="s">
+    <row r="158" spans="1:10" s="34" customFormat="1">
+      <c r="A158" s="56" t="s">
         <v>1410</v>
       </c>
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="56" t="s">
         <v>1414</v>
       </c>
-      <c r="C158" s="47" t="s">
+      <c r="C158" s="57" t="s">
         <v>2603</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E158" s="49">
+      <c r="E158" s="56">
         <v>17.2</v>
       </c>
-      <c r="F158" s="50">
+      <c r="F158" s="58">
         <v>42630</v>
       </c>
-      <c r="G158" s="49" t="s">
+      <c r="G158" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H158" s="49" t="s">
+      <c r="H158" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I158" s="51">
+      <c r="I158" s="59">
         <v>78526388282053</v>
       </c>
+      <c r="J158" s="56"/>
     </row>
-    <row r="159" spans="1:9" s="46" customFormat="1">
-      <c r="A159" s="46" t="s">
+    <row r="159" spans="1:10" s="34" customFormat="1">
+      <c r="A159" s="56" t="s">
         <v>1419</v>
       </c>
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="56" t="s">
         <v>1423</v>
       </c>
-      <c r="C159" s="47" t="s">
+      <c r="C159" s="57" t="s">
         <v>2604</v>
       </c>
-      <c r="D159" s="48" t="s">
+      <c r="D159" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="49"/>
-      <c r="F159" s="49"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="49" t="s">
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I159" s="68"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="56"/>
     </row>
-    <row r="160" spans="1:9" s="46" customFormat="1">
-      <c r="A160" s="46" t="s">
+    <row r="160" spans="1:10" s="34" customFormat="1">
+      <c r="A160" s="56" t="s">
         <v>1428</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="56" t="s">
         <v>1431</v>
       </c>
-      <c r="C160" s="72" t="s">
+      <c r="C160" s="77" t="s">
         <v>2605</v>
       </c>
-      <c r="D160" s="48" t="s">
+      <c r="D160" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E160" s="49"/>
-      <c r="F160" s="49"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49" t="s">
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="G160" s="56"/>
+      <c r="H160" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I160" s="68"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="56"/>
     </row>
-    <row r="161" spans="1:9" s="46" customFormat="1">
-      <c r="A161" s="46" t="s">
+    <row r="161" spans="1:10" s="34" customFormat="1">
+      <c r="A161" s="56" t="s">
         <v>1438</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="56" t="s">
         <v>1443</v>
       </c>
-      <c r="C161" s="62" t="s">
+      <c r="C161" s="69" t="s">
         <v>2859</v>
       </c>
-      <c r="D161" s="48" t="s">
+      <c r="D161" s="56" t="s">
         <v>1442</v>
       </c>
-      <c r="E161" s="49">
+      <c r="E161" s="56">
         <v>50</v>
       </c>
-      <c r="F161" s="50">
+      <c r="F161" s="58">
         <v>42628</v>
       </c>
-      <c r="G161" s="49" t="s">
+      <c r="G161" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H161" s="49" t="s">
+      <c r="H161" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I161" s="51">
+      <c r="I161" s="59">
         <v>78493430452053</v>
       </c>
+      <c r="J161" s="56"/>
     </row>
-    <row r="162" spans="1:9" s="46" customFormat="1">
-      <c r="A162" s="46" t="s">
+    <row r="162" spans="1:10" s="34" customFormat="1">
+      <c r="A162" s="56" t="s">
         <v>1449</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="56" t="s">
         <v>1453</v>
       </c>
-      <c r="C162" s="62" t="s">
+      <c r="C162" s="69" t="s">
         <v>2606</v>
       </c>
-      <c r="D162" s="48" t="s">
+      <c r="D162" s="56" t="s">
         <v>1452</v>
       </c>
-      <c r="E162" s="49">
+      <c r="E162" s="56">
         <v>19</v>
       </c>
-      <c r="F162" s="50">
+      <c r="F162" s="58">
         <v>42627</v>
       </c>
-      <c r="G162" s="49" t="s">
+      <c r="G162" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H162" s="49" t="s">
+      <c r="H162" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I162" s="51">
+      <c r="I162" s="59">
         <v>78488072792053</v>
       </c>
+      <c r="J162" s="56"/>
     </row>
-    <row r="163" spans="1:9" s="46" customFormat="1">
-      <c r="A163" s="46" t="s">
+    <row r="163" spans="1:10" s="34" customFormat="1">
+      <c r="A163" s="56" t="s">
         <v>1449</v>
       </c>
-      <c r="C163" s="62" t="s">
+      <c r="B163" s="56"/>
+      <c r="C163" s="69" t="s">
         <v>2607</v>
       </c>
-      <c r="D163" s="48" t="s">
+      <c r="D163" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49"/>
-      <c r="G163" s="49"/>
-      <c r="H163" s="49" t="s">
+      <c r="E163" s="56"/>
+      <c r="F163" s="56"/>
+      <c r="G163" s="56"/>
+      <c r="H163" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I163" s="68"/>
+      <c r="I163" s="74"/>
+      <c r="J163" s="56"/>
     </row>
-    <row r="164" spans="1:9" s="46" customFormat="1">
-      <c r="A164" s="46" t="s">
+    <row r="164" spans="1:10" s="34" customFormat="1">
+      <c r="A164" s="56" t="s">
         <v>1459</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="56" t="s">
         <v>1462</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="57" t="s">
         <v>2687</v>
       </c>
-      <c r="D164" s="48" t="s">
+      <c r="D164" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E164" s="49">
+      <c r="E164" s="56">
         <v>60</v>
       </c>
-      <c r="F164" s="50">
+      <c r="F164" s="58">
         <v>42627</v>
       </c>
-      <c r="G164" s="49" t="s">
+      <c r="G164" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H164" s="49" t="s">
+      <c r="H164" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I164" s="51">
+      <c r="I164" s="59">
         <v>78393006312053</v>
       </c>
+      <c r="J164" s="56"/>
     </row>
-    <row r="165" spans="1:9" s="46" customFormat="1">
-      <c r="A165" s="46" t="s">
+    <row r="165" spans="1:10" s="34" customFormat="1">
+      <c r="A165" s="56" t="s">
         <v>1468</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="56" t="s">
         <v>1471</v>
       </c>
-      <c r="C165" s="62" t="s">
+      <c r="C165" s="69" t="s">
         <v>2607</v>
       </c>
-      <c r="D165" s="48" t="s">
+      <c r="D165" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="49" t="s">
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
+      <c r="G165" s="56"/>
+      <c r="H165" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I165" s="68"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="56"/>
     </row>
-    <row r="166" spans="1:9" s="46" customFormat="1">
-      <c r="A166" s="46" t="s">
+    <row r="166" spans="1:10" s="34" customFormat="1">
+      <c r="A166" s="56" t="s">
         <v>1477</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="56" t="s">
         <v>1480</v>
       </c>
-      <c r="C166" s="71" t="s">
+      <c r="C166" s="76" t="s">
         <v>2608</v>
       </c>
-      <c r="D166" s="48" t="s">
+      <c r="D166" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49" t="s">
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I166" s="68"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="56"/>
     </row>
-    <row r="167" spans="1:9" s="46" customFormat="1">
-      <c r="A167" s="46" t="s">
+    <row r="167" spans="1:10" s="34" customFormat="1">
+      <c r="A167" s="56" t="s">
         <v>1489</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="56" t="s">
         <v>1493</v>
       </c>
-      <c r="C167" s="62" t="s">
+      <c r="C167" s="69" t="s">
         <v>2609</v>
       </c>
-      <c r="D167" s="48" t="s">
+      <c r="D167" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="E167" s="49">
+      <c r="E167" s="56">
         <v>17</v>
       </c>
-      <c r="F167" s="50">
+      <c r="F167" s="58">
         <v>42626</v>
       </c>
-      <c r="G167" s="49" t="s">
+      <c r="G167" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H167" s="49" t="s">
+      <c r="H167" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I167" s="51">
+      <c r="I167" s="59">
         <v>78401134562053</v>
       </c>
+      <c r="J167" s="56"/>
     </row>
-    <row r="168" spans="1:9" s="46" customFormat="1">
-      <c r="A168" s="46" t="s">
+    <row r="168" spans="1:10" s="34" customFormat="1">
+      <c r="A168" s="56" t="s">
         <v>1499</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="56" t="s">
         <v>1502</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="C168" s="69" t="s">
         <v>2610</v>
       </c>
-      <c r="D168" s="48" t="s">
+      <c r="D168" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="49" t="s">
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56"/>
+      <c r="H168" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I168" s="68"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="56"/>
     </row>
-    <row r="169" spans="1:9" s="75" customFormat="1">
-      <c r="A169" s="75" t="s">
+    <row r="169" spans="1:10" s="37" customFormat="1">
+      <c r="A169" s="80" t="s">
         <v>1509</v>
       </c>
-      <c r="B169" s="75" t="s">
+      <c r="B169" s="80" t="s">
         <v>1515</v>
       </c>
-      <c r="C169" s="76" t="s">
+      <c r="C169" s="81" t="s">
         <v>2611</v>
       </c>
-      <c r="D169" s="77" t="s">
+      <c r="D169" s="80" t="s">
         <v>1514</v>
       </c>
-      <c r="E169" s="78">
+      <c r="E169" s="80">
         <v>19</v>
       </c>
-      <c r="F169" s="79">
+      <c r="F169" s="82">
         <v>42626</v>
       </c>
-      <c r="G169" s="78" t="s">
+      <c r="G169" s="80" t="s">
         <v>2619</v>
       </c>
-      <c r="H169" s="78" t="s">
+      <c r="H169" s="80" t="s">
         <v>2861</v>
       </c>
-      <c r="I169" s="80">
+      <c r="I169" s="83">
         <v>78364522632053</v>
       </c>
+      <c r="J169" s="80"/>
     </row>
-    <row r="170" spans="1:9" s="46" customFormat="1">
-      <c r="A170" s="46" t="s">
+    <row r="170" spans="1:10" s="34" customFormat="1">
+      <c r="A170" s="56" t="s">
         <v>1524</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="56" t="s">
         <v>1527</v>
       </c>
-      <c r="C170" s="71" t="s">
+      <c r="C170" s="76" t="s">
         <v>2612</v>
       </c>
-      <c r="D170" s="48" t="s">
+      <c r="D170" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="49" t="s">
+      <c r="E170" s="56"/>
+      <c r="F170" s="56"/>
+      <c r="G170" s="56"/>
+      <c r="H170" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I170" s="68"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="56"/>
     </row>
-    <row r="171" spans="1:9" s="46" customFormat="1">
-      <c r="A171" s="46" t="s">
+    <row r="171" spans="1:10" s="34" customFormat="1">
+      <c r="A171" s="56" t="s">
         <v>1532</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="56" t="s">
         <v>1535</v>
       </c>
-      <c r="C171" s="47" t="s">
+      <c r="C171" s="57" t="s">
         <v>2613</v>
       </c>
-      <c r="D171" s="48" t="s">
+      <c r="D171" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E171" s="49">
+      <c r="E171" s="56">
         <v>16.989999999999998</v>
       </c>
-      <c r="F171" s="50">
+      <c r="F171" s="58">
         <v>42624</v>
       </c>
-      <c r="G171" s="49" t="s">
+      <c r="G171" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H171" s="49" t="s">
+      <c r="H171" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I171" s="51">
+      <c r="I171" s="59">
         <v>78360691042053</v>
       </c>
+      <c r="J171" s="56"/>
     </row>
-    <row r="172" spans="1:9" s="46" customFormat="1">
-      <c r="A172" s="46" t="s">
+    <row r="172" spans="1:10" s="34" customFormat="1">
+      <c r="A172" s="56" t="s">
         <v>1541</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="56" t="s">
         <v>1544</v>
       </c>
-      <c r="C172" s="62" t="s">
+      <c r="C172" s="69" t="s">
         <v>2614</v>
       </c>
-      <c r="D172" s="48" t="s">
+      <c r="D172" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E172" s="49">
+      <c r="E172" s="56">
         <v>16.989999999999998</v>
       </c>
-      <c r="F172" s="50">
+      <c r="F172" s="58">
         <v>42625</v>
       </c>
-      <c r="G172" s="49" t="s">
+      <c r="G172" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H172" s="49" t="s">
+      <c r="H172" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I172" s="51">
+      <c r="I172" s="59">
         <v>78349069302053</v>
       </c>
+      <c r="J172" s="56"/>
     </row>
-    <row r="173" spans="1:9" s="46" customFormat="1">
-      <c r="A173" s="46" t="s">
+    <row r="173" spans="1:10" s="34" customFormat="1">
+      <c r="A173" s="56" t="s">
         <v>1549</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="56" t="s">
         <v>1552</v>
       </c>
-      <c r="C173" s="47" t="s">
+      <c r="C173" s="57" t="s">
         <v>2692</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E173" s="49">
+      <c r="E173" s="56">
         <v>60</v>
       </c>
-      <c r="F173" s="50">
+      <c r="F173" s="58">
         <v>42623</v>
       </c>
-      <c r="G173" s="49" t="s">
+      <c r="G173" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H173" s="49" t="s">
+      <c r="H173" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I173" s="51">
+      <c r="I173" s="59">
         <v>78335617202053</v>
       </c>
+      <c r="J173" s="56"/>
     </row>
-    <row r="174" spans="1:9" s="46" customFormat="1">
-      <c r="A174" s="46" t="s">
+    <row r="174" spans="1:10" s="34" customFormat="1">
+      <c r="A174" s="56" t="s">
         <v>1560</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="56" t="s">
         <v>1564</v>
       </c>
-      <c r="C174" s="62" t="s">
+      <c r="C174" s="69" t="s">
         <v>2615</v>
       </c>
-      <c r="D174" s="48" t="s">
+      <c r="D174" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E174" s="49"/>
-      <c r="F174" s="49"/>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49" t="s">
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+      <c r="H174" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I174" s="68"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="56"/>
     </row>
-    <row r="175" spans="1:9" s="46" customFormat="1">
-      <c r="A175" s="46" t="s">
+    <row r="175" spans="1:10" s="34" customFormat="1">
+      <c r="A175" s="56" t="s">
         <v>1569</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="56" t="s">
         <v>1574</v>
       </c>
-      <c r="C175" s="62" t="s">
+      <c r="C175" s="69" t="s">
         <v>2616</v>
       </c>
-      <c r="D175" s="48" t="s">
+      <c r="D175" s="56" t="s">
         <v>1573</v>
       </c>
-      <c r="E175" s="49">
+      <c r="E175" s="56">
         <v>33.979999999999997</v>
       </c>
-      <c r="F175" s="50">
+      <c r="F175" s="58">
         <v>42624</v>
       </c>
-      <c r="G175" s="49" t="s">
+      <c r="G175" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H175" s="49" t="s">
+      <c r="H175" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I175" s="51">
+      <c r="I175" s="59">
         <v>78303046742053</v>
       </c>
+      <c r="J175" s="56"/>
     </row>
-    <row r="176" spans="1:9" s="46" customFormat="1">
-      <c r="A176" s="46" t="s">
+    <row r="176" spans="1:10" s="34" customFormat="1">
+      <c r="A176" s="56" t="s">
         <v>1579</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="56" t="s">
         <v>1583</v>
       </c>
-      <c r="C176" s="62" t="s">
+      <c r="C176" s="69" t="s">
         <v>2617</v>
       </c>
-      <c r="D176" s="48" t="s">
+      <c r="D176" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E176" s="49">
+      <c r="E176" s="56">
         <v>21.84</v>
       </c>
-      <c r="F176" s="50">
+      <c r="F176" s="58">
         <v>42624</v>
       </c>
-      <c r="G176" s="49" t="s">
+      <c r="G176" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H176" s="49" t="s">
+      <c r="H176" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I176" s="51">
+      <c r="I176" s="59">
         <v>78347467042053</v>
       </c>
+      <c r="J176" s="56"/>
     </row>
-    <row r="177" spans="1:9" s="46" customFormat="1">
-      <c r="A177" s="46" t="s">
+    <row r="177" spans="1:10" s="34" customFormat="1">
+      <c r="A177" s="56" t="s">
         <v>1587</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="56" t="s">
         <v>1590</v>
       </c>
-      <c r="C177" s="62" t="s">
+      <c r="C177" s="69" t="s">
         <v>2693</v>
       </c>
-      <c r="D177" s="48" t="s">
+      <c r="D177" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E177" s="49">
+      <c r="E177" s="56">
         <v>14</v>
       </c>
-      <c r="F177" s="50">
+      <c r="F177" s="58">
         <v>42623</v>
       </c>
-      <c r="G177" s="49" t="s">
+      <c r="G177" s="56" t="s">
         <v>2691</v>
       </c>
-      <c r="H177" s="49" t="s">
+      <c r="H177" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I177" s="51">
+      <c r="I177" s="59">
         <v>78311774852053</v>
       </c>
+      <c r="J177" s="56"/>
     </row>
-    <row r="178" spans="1:9" s="46" customFormat="1">
-      <c r="A178" s="46" t="s">
+    <row r="178" spans="1:10" s="34" customFormat="1">
+      <c r="A178" s="56" t="s">
         <v>1595</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="56" t="s">
         <v>1600</v>
       </c>
-      <c r="C178" s="62" t="s">
+      <c r="C178" s="69" t="s">
         <v>2690</v>
       </c>
-      <c r="E178" s="49"/>
-      <c r="F178" s="49"/>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49" t="s">
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="56"/>
+      <c r="G178" s="56"/>
+      <c r="H178" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I178" s="51">
+      <c r="I178" s="59">
         <v>78674788382053</v>
       </c>
+      <c r="J178" s="56"/>
     </row>
-    <row r="179" spans="1:9" s="81" customFormat="1">
-      <c r="A179" s="81" t="s">
+    <row r="179" spans="1:10" s="38" customFormat="1">
+      <c r="A179" s="84" t="s">
         <v>1605</v>
       </c>
-      <c r="B179" s="81" t="s">
+      <c r="B179" s="84" t="s">
         <v>1610</v>
       </c>
-      <c r="C179" s="82" t="s">
+      <c r="C179" s="85" t="s">
         <v>2694</v>
       </c>
-      <c r="D179" s="83" t="s">
+      <c r="D179" s="84" t="s">
         <v>1452</v>
       </c>
       <c r="E179" s="84">
         <v>17.88</v>
       </c>
-      <c r="F179" s="85">
+      <c r="F179" s="86">
         <v>42622</v>
       </c>
       <c r="G179" s="84" t="s">
@@ -74592,1581 +74873,1930 @@
       <c r="H179" s="84" t="s">
         <v>2868</v>
       </c>
-      <c r="I179" s="86">
+      <c r="I179" s="87">
         <v>78759747792053</v>
       </c>
+      <c r="J179" s="84"/>
     </row>
-    <row r="180" spans="1:9" s="46" customFormat="1">
-      <c r="A180" s="46" t="s">
+    <row r="180" spans="1:10" s="34" customFormat="1">
+      <c r="A180" s="56" t="s">
         <v>1616</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="56" t="s">
         <v>1619</v>
       </c>
-      <c r="C180" s="62" t="s">
+      <c r="C180" s="69" t="s">
         <v>2695</v>
       </c>
-      <c r="D180" s="48" t="s">
+      <c r="D180" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E180" s="49">
+      <c r="E180" s="56">
         <v>11.31</v>
       </c>
-      <c r="F180" s="50">
+      <c r="F180" s="58">
         <v>42622</v>
       </c>
-      <c r="G180" s="49" t="s">
+      <c r="G180" s="56" t="s">
         <v>2691</v>
       </c>
-      <c r="H180" s="49" t="s">
+      <c r="H180" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I180" s="51">
+      <c r="I180" s="59">
         <v>78343711022053</v>
       </c>
+      <c r="J180" s="56"/>
     </row>
-    <row r="181" spans="1:9" s="46" customFormat="1">
-      <c r="A181" s="46" t="s">
+    <row r="181" spans="1:10" s="34" customFormat="1">
+      <c r="A181" s="56" t="s">
         <v>1616</v>
       </c>
-      <c r="C181" s="62" t="s">
+      <c r="B181" s="56"/>
+      <c r="C181" s="69" t="s">
         <v>2696</v>
       </c>
-      <c r="D181" s="46" t="s">
+      <c r="D181" s="56" t="s">
         <v>776</v>
       </c>
-      <c r="E181" s="49">
+      <c r="E181" s="56">
         <v>6.33</v>
       </c>
-      <c r="F181" s="50">
+      <c r="F181" s="58">
         <v>42622</v>
       </c>
-      <c r="G181" s="49" t="s">
+      <c r="G181" s="56" t="s">
         <v>2619</v>
       </c>
-      <c r="H181" s="49" t="s">
+      <c r="H181" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I181" s="51">
+      <c r="I181" s="59">
         <v>78286216312053</v>
       </c>
+      <c r="J181" s="56"/>
     </row>
-    <row r="182" spans="1:9" s="46" customFormat="1">
-      <c r="A182" s="46" t="s">
+    <row r="182" spans="1:10" s="34" customFormat="1">
+      <c r="A182" s="56" t="s">
         <v>1624</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="56" t="s">
         <v>1627</v>
       </c>
-      <c r="C182" s="62" t="s">
+      <c r="C182" s="69" t="s">
         <v>2697</v>
       </c>
-      <c r="D182" s="48" t="s">
+      <c r="D182" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E182" s="49">
+      <c r="E182" s="56">
         <v>16.309999999999999</v>
       </c>
-      <c r="F182" s="50">
+      <c r="F182" s="58">
         <v>42621</v>
       </c>
-      <c r="G182" s="49" t="s">
+      <c r="G182" s="56" t="s">
         <v>2691</v>
       </c>
-      <c r="H182" s="49" t="s">
+      <c r="H182" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I182" s="51">
+      <c r="I182" s="59">
         <v>78312594622053</v>
       </c>
+      <c r="J182" s="56"/>
     </row>
-    <row r="183" spans="1:9" s="46" customFormat="1">
-      <c r="A183" s="46" t="s">
+    <row r="183" spans="1:10" s="34" customFormat="1">
+      <c r="A183" s="56" t="s">
         <v>1632</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="56" t="s">
         <v>1635</v>
       </c>
-      <c r="C183" s="71" t="s">
+      <c r="C183" s="76" t="s">
         <v>2877</v>
       </c>
-      <c r="E183" s="49"/>
-      <c r="F183" s="49"/>
-      <c r="G183" s="49" t="s">
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
+      <c r="G183" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="H183" s="49"/>
-      <c r="I183" s="99"/>
+      <c r="H183" s="56"/>
+      <c r="I183" s="88"/>
+      <c r="J183" s="56"/>
     </row>
-    <row r="184" spans="1:9" s="87" customFormat="1">
-      <c r="A184" s="87" t="s">
+    <row r="184" spans="1:10" s="39" customFormat="1">
+      <c r="A184" s="89" t="s">
         <v>1643</v>
       </c>
-      <c r="B184" s="87" t="s">
+      <c r="B184" s="89" t="s">
         <v>1649</v>
       </c>
-      <c r="C184" s="88" t="s">
+      <c r="C184" s="90" t="s">
         <v>2698</v>
       </c>
+      <c r="D184" s="89"/>
       <c r="E184" s="89"/>
       <c r="F184" s="89"/>
       <c r="G184" s="89" t="s">
         <v>2691</v>
       </c>
       <c r="H184" s="89"/>
-      <c r="I184" s="90">
+      <c r="I184" s="91">
         <v>78234226852053</v>
       </c>
+      <c r="J184" s="89"/>
     </row>
-    <row r="185" spans="1:9" s="87" customFormat="1">
-      <c r="A185" s="87" t="s">
+    <row r="185" spans="1:10" s="39" customFormat="1">
+      <c r="A185" s="89" t="s">
         <v>1654</v>
       </c>
-      <c r="B185" s="87" t="s">
+      <c r="B185" s="89" t="s">
         <v>1649</v>
       </c>
-      <c r="C185" s="88" t="s">
+      <c r="C185" s="90" t="s">
         <v>2698</v>
       </c>
+      <c r="D185" s="89"/>
       <c r="E185" s="89"/>
       <c r="F185" s="89"/>
       <c r="G185" s="89"/>
       <c r="H185" s="89"/>
-      <c r="I185" s="91"/>
+      <c r="I185" s="92"/>
+      <c r="J185" s="89"/>
     </row>
-    <row r="186" spans="1:9" s="46" customFormat="1">
-      <c r="A186" s="46" t="s">
+    <row r="186" spans="1:10" s="34" customFormat="1">
+      <c r="A186" s="56" t="s">
         <v>1658</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="56" t="s">
         <v>1662</v>
       </c>
-      <c r="C186" s="71" t="s">
+      <c r="C186" s="76" t="s">
         <v>2699</v>
       </c>
-      <c r="E186" s="49"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="49" t="s">
+      <c r="D186" s="56"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="56"/>
+      <c r="G186" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="H186" s="49" t="s">
+      <c r="H186" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I186" s="68"/>
+      <c r="I186" s="74"/>
+      <c r="J186" s="56"/>
     </row>
-    <row r="187" spans="1:9" s="46" customFormat="1">
-      <c r="A187" s="46" t="s">
+    <row r="187" spans="1:10" s="34" customFormat="1">
+      <c r="A187" s="56" t="s">
         <v>1669</v>
       </c>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="56" t="s">
         <v>1673</v>
       </c>
-      <c r="C187" s="71" t="s">
+      <c r="C187" s="76" t="s">
         <v>2869</v>
       </c>
-      <c r="E187" s="49"/>
-      <c r="F187" s="49"/>
-      <c r="G187" s="49" t="s">
+      <c r="D187" s="56"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="56"/>
+      <c r="G187" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="H187" s="49"/>
-      <c r="I187" s="68"/>
+      <c r="H187" s="56"/>
+      <c r="I187" s="74"/>
+      <c r="J187" s="56"/>
     </row>
-    <row r="188" spans="1:9" s="46" customFormat="1">
-      <c r="A188" s="46" t="s">
+    <row r="188" spans="1:10" s="34" customFormat="1">
+      <c r="A188" s="56" t="s">
         <v>1678</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="56" t="s">
         <v>1681</v>
       </c>
-      <c r="C188" s="71" t="s">
+      <c r="C188" s="76" t="s">
         <v>2869</v>
       </c>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="49" t="s">
+      <c r="D188" s="56"/>
+      <c r="E188" s="56"/>
+      <c r="F188" s="56"/>
+      <c r="G188" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="H188" s="49"/>
-      <c r="I188" s="68"/>
+      <c r="H188" s="56"/>
+      <c r="I188" s="74"/>
+      <c r="J188" s="56"/>
     </row>
-    <row r="189" spans="1:9" s="92" customFormat="1">
-      <c r="A189" s="92" t="s">
+    <row r="189" spans="1:10" s="40" customFormat="1">
+      <c r="A189" s="93" t="s">
         <v>1687</v>
       </c>
-      <c r="B189" s="92" t="s">
+      <c r="B189" s="93" t="s">
         <v>1690</v>
       </c>
-      <c r="C189" s="93" t="s">
+      <c r="C189" s="94" t="s">
         <v>1645</v>
       </c>
-      <c r="E189" s="94"/>
-      <c r="F189" s="94"/>
-      <c r="G189" s="94"/>
-      <c r="H189" s="94"/>
+      <c r="D189" s="93"/>
+      <c r="E189" s="93"/>
+      <c r="F189" s="93"/>
+      <c r="G189" s="93"/>
+      <c r="H189" s="93"/>
       <c r="I189" s="95"/>
+      <c r="J189" s="93"/>
     </row>
-    <row r="190" spans="1:9" s="46" customFormat="1">
-      <c r="A190" s="46" t="s">
+    <row r="190" spans="1:10" s="34" customFormat="1">
+      <c r="A190" s="56" t="s">
         <v>1697</v>
       </c>
-      <c r="B190" s="46" t="s">
+      <c r="B190" s="56" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="71" t="s">
+      <c r="C190" s="76" t="s">
         <v>2700</v>
       </c>
-      <c r="D190" s="46" t="s">
+      <c r="D190" s="56" t="s">
         <v>2701</v>
       </c>
-      <c r="E190" s="49"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="49" t="s">
+      <c r="E190" s="56"/>
+      <c r="F190" s="56"/>
+      <c r="G190" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="H190" s="49" t="s">
+      <c r="H190" s="56" t="s">
         <v>2846</v>
       </c>
-      <c r="I190" s="51">
+      <c r="I190" s="59">
         <v>78658977522053</v>
       </c>
+      <c r="J190" s="56"/>
     </row>
-    <row r="191" spans="1:9" s="87" customFormat="1">
-      <c r="A191" s="87" t="s">
+    <row r="191" spans="1:10" s="39" customFormat="1">
+      <c r="A191" s="89" t="s">
         <v>1708</v>
       </c>
-      <c r="B191" s="87" t="s">
+      <c r="B191" s="89" t="s">
         <v>1711</v>
       </c>
-      <c r="C191" s="88" t="s">
+      <c r="C191" s="90" t="s">
         <v>2702</v>
       </c>
+      <c r="D191" s="89"/>
       <c r="E191" s="89"/>
       <c r="F191" s="89"/>
       <c r="G191" s="89" t="s">
         <v>1645</v>
       </c>
       <c r="H191" s="89"/>
-      <c r="I191" s="91"/>
+      <c r="I191" s="92"/>
+      <c r="J191" s="89"/>
     </row>
-    <row r="192" spans="1:9" s="46" customFormat="1">
-      <c r="A192" s="46" t="s">
+    <row r="192" spans="1:10" s="34" customFormat="1">
+      <c r="A192" s="56" t="s">
         <v>1717</v>
       </c>
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="56" t="s">
         <v>1722</v>
       </c>
-      <c r="C192" s="71" t="s">
+      <c r="C192" s="76" t="s">
         <v>2703</v>
       </c>
-      <c r="E192" s="49">
+      <c r="D192" s="56"/>
+      <c r="E192" s="56">
         <v>16.989999999999998</v>
       </c>
-      <c r="F192" s="50">
+      <c r="F192" s="58">
         <v>42618</v>
       </c>
-      <c r="G192" s="49" t="s">
+      <c r="G192" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H192" s="49" t="s">
+      <c r="H192" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I192" s="68"/>
+      <c r="I192" s="74"/>
+      <c r="J192" s="56"/>
     </row>
-    <row r="193" spans="1:9" s="46" customFormat="1">
-      <c r="A193" s="46" t="s">
+    <row r="193" spans="1:10" s="34" customFormat="1">
+      <c r="A193" s="56" t="s">
         <v>1727</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="56" t="s">
         <v>1730</v>
       </c>
-      <c r="C193" s="71" t="s">
+      <c r="C193" s="76" t="s">
         <v>2704</v>
       </c>
-      <c r="E193" s="49"/>
-      <c r="F193" s="49"/>
-      <c r="G193" s="49"/>
-      <c r="H193" s="49" t="s">
+      <c r="D193" s="56"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I193" s="68"/>
+      <c r="I193" s="74"/>
+      <c r="J193" s="56"/>
     </row>
-    <row r="194" spans="1:9" s="46" customFormat="1">
-      <c r="A194" s="46" t="s">
+    <row r="194" spans="1:10" s="34" customFormat="1">
+      <c r="A194" s="56" t="s">
         <v>1737</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="56" t="s">
         <v>1740</v>
       </c>
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="69" t="s">
         <v>2705</v>
       </c>
-      <c r="E194" s="49"/>
-      <c r="F194" s="49"/>
-      <c r="G194" s="49" t="s">
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H194" s="49" t="s">
+      <c r="H194" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I194" s="51">
+      <c r="I194" s="59">
         <v>78235384472053</v>
       </c>
+      <c r="J194" s="56"/>
     </row>
-    <row r="195" spans="1:9" s="46" customFormat="1">
-      <c r="A195" s="46" t="s">
+    <row r="195" spans="1:10" s="34" customFormat="1">
+      <c r="A195" s="56" t="s">
         <v>1745</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="56" t="s">
         <v>1751</v>
       </c>
-      <c r="C195" s="71" t="s">
+      <c r="C195" s="76" t="s">
         <v>2706</v>
       </c>
-      <c r="E195" s="49"/>
-      <c r="F195" s="49"/>
-      <c r="G195" s="49" t="s">
+      <c r="D195" s="56"/>
+      <c r="E195" s="56"/>
+      <c r="F195" s="56"/>
+      <c r="G195" s="56" t="s">
         <v>2863</v>
       </c>
-      <c r="H195" s="49" t="s">
+      <c r="H195" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I195" s="68"/>
+      <c r="I195" s="74"/>
+      <c r="J195" s="56"/>
     </row>
-    <row r="196" spans="1:9" s="46" customFormat="1">
-      <c r="A196" s="46" t="s">
+    <row r="196" spans="1:10" s="34" customFormat="1">
+      <c r="A196" s="56" t="s">
         <v>1756</v>
       </c>
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="56" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="71" t="s">
+      <c r="C196" s="76" t="s">
         <v>2707</v>
       </c>
-      <c r="E196" s="49"/>
-      <c r="F196" s="49"/>
-      <c r="G196" s="49"/>
-      <c r="H196" s="49" t="s">
+      <c r="D196" s="56"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="56"/>
+      <c r="G196" s="56"/>
+      <c r="H196" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I196" s="68"/>
+      <c r="I196" s="74"/>
+      <c r="J196" s="56"/>
     </row>
-    <row r="197" spans="1:9" s="46" customFormat="1">
-      <c r="A197" s="46" t="s">
+    <row r="197" spans="1:10" s="34" customFormat="1">
+      <c r="A197" s="56" t="s">
         <v>1766</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="56" t="s">
         <v>1770</v>
       </c>
-      <c r="C197" s="71" t="s">
+      <c r="C197" s="76" t="s">
         <v>2708</v>
       </c>
-      <c r="E197" s="49"/>
-      <c r="F197" s="49"/>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49" t="s">
+      <c r="D197" s="56"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I197" s="68"/>
+      <c r="I197" s="74"/>
+      <c r="J197" s="56"/>
     </row>
-    <row r="198" spans="1:9" s="75" customFormat="1">
-      <c r="A198" s="75" t="s">
+    <row r="198" spans="1:10" s="37" customFormat="1">
+      <c r="A198" s="80" t="s">
         <v>1775</v>
       </c>
-      <c r="B198" s="75" t="s">
+      <c r="B198" s="80" t="s">
         <v>1779</v>
       </c>
       <c r="C198" s="96" t="s">
         <v>2819</v>
       </c>
-      <c r="E198" s="78"/>
-      <c r="F198" s="78"/>
-      <c r="G198" s="78" t="s">
+      <c r="D198" s="80"/>
+      <c r="E198" s="80"/>
+      <c r="F198" s="80"/>
+      <c r="G198" s="80" t="s">
         <v>2686</v>
       </c>
-      <c r="H198" s="78" t="s">
+      <c r="H198" s="80" t="s">
         <v>2864</v>
       </c>
-      <c r="I198" s="80">
+      <c r="I198" s="83">
         <v>79027092392053</v>
       </c>
+      <c r="J198" s="80"/>
     </row>
-    <row r="199" spans="1:9" s="46" customFormat="1">
-      <c r="A199" s="46" t="s">
+    <row r="199" spans="1:10" s="34" customFormat="1">
+      <c r="A199" s="56" t="s">
         <v>1784</v>
       </c>
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="56" t="s">
         <v>1787</v>
       </c>
-      <c r="C199" s="71" t="s">
+      <c r="C199" s="76" t="s">
         <v>2709</v>
       </c>
-      <c r="E199" s="49"/>
-      <c r="F199" s="49"/>
-      <c r="G199" s="49"/>
-      <c r="H199" s="49" t="s">
+      <c r="D199" s="56"/>
+      <c r="E199" s="56"/>
+      <c r="F199" s="56"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I199" s="68"/>
+      <c r="I199" s="74"/>
+      <c r="J199" s="56"/>
     </row>
-    <row r="200" spans="1:9" s="46" customFormat="1">
-      <c r="A200" s="46" t="s">
+    <row r="200" spans="1:10" s="34" customFormat="1">
+      <c r="A200" s="56" t="s">
         <v>1798</v>
       </c>
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="56" t="s">
         <v>1801</v>
       </c>
-      <c r="C200" s="62" t="s">
+      <c r="C200" s="69" t="s">
         <v>2710</v>
       </c>
-      <c r="E200" s="49"/>
-      <c r="F200" s="49"/>
-      <c r="G200" s="49" t="s">
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56" t="s">
         <v>2686</v>
       </c>
-      <c r="H200" s="49" t="s">
+      <c r="H200" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I200" s="51">
+      <c r="I200" s="59">
         <v>78257277242053</v>
       </c>
+      <c r="J200" s="56"/>
     </row>
-    <row r="201" spans="1:9" s="46" customFormat="1">
-      <c r="A201" s="46" t="s">
+    <row r="201" spans="1:10" s="34" customFormat="1">
+      <c r="A201" s="56" t="s">
         <v>1807</v>
       </c>
-      <c r="B201" s="46" t="s">
+      <c r="B201" s="56" t="s">
         <v>1810</v>
       </c>
-      <c r="C201" s="71" t="s">
+      <c r="C201" s="76" t="s">
         <v>2711</v>
       </c>
-      <c r="E201" s="49"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="49"/>
-      <c r="H201" s="49" t="s">
+      <c r="D201" s="56"/>
+      <c r="E201" s="56"/>
+      <c r="F201" s="56"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I201" s="68"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="56"/>
     </row>
-    <row r="202" spans="1:9" s="46" customFormat="1">
-      <c r="A202" s="46" t="s">
+    <row r="202" spans="1:10" s="34" customFormat="1">
+      <c r="A202" s="56" t="s">
         <v>1820</v>
       </c>
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="56" t="s">
         <v>1824</v>
       </c>
-      <c r="C202" s="71" t="s">
+      <c r="C202" s="76" t="s">
         <v>2712</v>
       </c>
-      <c r="E202" s="49"/>
-      <c r="F202" s="49"/>
-      <c r="G202" s="49"/>
-      <c r="H202" s="49" t="s">
+      <c r="D202" s="56"/>
+      <c r="E202" s="56"/>
+      <c r="F202" s="56"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I202" s="68"/>
+      <c r="I202" s="74"/>
+      <c r="J202" s="56"/>
     </row>
-    <row r="203" spans="1:9" s="46" customFormat="1">
-      <c r="A203" s="46" t="s">
+    <row r="203" spans="1:10" s="34" customFormat="1">
+      <c r="A203" s="56" t="s">
         <v>1829</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="56" t="s">
         <v>1832</v>
       </c>
-      <c r="C203" s="71" t="s">
+      <c r="C203" s="76" t="s">
         <v>2713</v>
       </c>
-      <c r="E203" s="49"/>
-      <c r="F203" s="49"/>
-      <c r="G203" s="49"/>
-      <c r="H203" s="49" t="s">
+      <c r="D203" s="56"/>
+      <c r="E203" s="56"/>
+      <c r="F203" s="56"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I203" s="68"/>
+      <c r="I203" s="74"/>
+      <c r="J203" s="56"/>
     </row>
-    <row r="204" spans="1:9" s="46" customFormat="1">
-      <c r="A204" s="46" t="s">
+    <row r="204" spans="1:10" s="34" customFormat="1">
+      <c r="A204" s="56" t="s">
         <v>1839</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="56" t="s">
         <v>1844</v>
       </c>
-      <c r="C204" s="71" t="s">
+      <c r="C204" s="76" t="s">
         <v>2714</v>
       </c>
-      <c r="E204" s="49"/>
-      <c r="F204" s="49"/>
-      <c r="G204" s="49"/>
-      <c r="H204" s="49" t="s">
+      <c r="D204" s="56"/>
+      <c r="E204" s="56"/>
+      <c r="F204" s="56"/>
+      <c r="G204" s="56"/>
+      <c r="H204" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I204" s="68"/>
+      <c r="I204" s="74"/>
+      <c r="J204" s="56"/>
     </row>
-    <row r="205" spans="1:9" s="46" customFormat="1">
-      <c r="A205" s="46" t="s">
+    <row r="205" spans="1:10" s="34" customFormat="1">
+      <c r="A205" s="56" t="s">
         <v>1852</v>
       </c>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="56" t="s">
         <v>1855</v>
       </c>
-      <c r="C205" s="71" t="s">
+      <c r="C205" s="76" t="s">
         <v>2715</v>
       </c>
-      <c r="E205" s="49"/>
-      <c r="F205" s="49"/>
-      <c r="G205" s="49"/>
-      <c r="H205" s="49" t="s">
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="56"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I205" s="68"/>
+      <c r="I205" s="74"/>
+      <c r="J205" s="56"/>
     </row>
-    <row r="206" spans="1:9" s="46" customFormat="1">
-      <c r="A206" s="46" t="s">
+    <row r="206" spans="1:10" s="34" customFormat="1">
+      <c r="A206" s="56" t="s">
         <v>1862</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="56" t="s">
         <v>1866</v>
       </c>
-      <c r="C206" s="71" t="s">
+      <c r="C206" s="76" t="s">
         <v>2870</v>
       </c>
-      <c r="E206" s="49"/>
-      <c r="F206" s="49"/>
-      <c r="G206" s="49"/>
-      <c r="H206" s="49" t="s">
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I206" s="68"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="56"/>
     </row>
-    <row r="207" spans="1:9" s="46" customFormat="1">
-      <c r="A207" s="46" t="s">
+    <row r="207" spans="1:10" s="34" customFormat="1">
+      <c r="A207" s="56" t="s">
         <v>1873</v>
       </c>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="56" t="s">
         <v>1877</v>
       </c>
-      <c r="C207" s="71" t="s">
+      <c r="C207" s="76" t="s">
         <v>2716</v>
       </c>
-      <c r="D207" s="46" t="s">
+      <c r="D207" s="56" t="s">
         <v>2753</v>
       </c>
-      <c r="E207" s="49">
+      <c r="E207" s="56">
         <v>5.58</v>
       </c>
-      <c r="F207" s="50">
+      <c r="F207" s="58">
         <v>42611</v>
       </c>
-      <c r="G207" s="49" t="s">
+      <c r="G207" s="56" t="s">
         <v>2623</v>
       </c>
-      <c r="H207" s="49" t="s">
+      <c r="H207" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I207" s="68"/>
+      <c r="I207" s="74"/>
+      <c r="J207" s="56"/>
     </row>
-    <row r="208" spans="1:9" s="46" customFormat="1">
-      <c r="A208" s="46" t="s">
+    <row r="208" spans="1:10" s="34" customFormat="1">
+      <c r="A208" s="56" t="s">
         <v>1882</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="56" t="s">
         <v>1885</v>
       </c>
-      <c r="C208" s="71" t="s">
+      <c r="C208" s="76" t="s">
         <v>2717</v>
       </c>
-      <c r="E208" s="49"/>
-      <c r="F208" s="49"/>
-      <c r="G208" s="49"/>
-      <c r="H208" s="49" t="s">
+      <c r="D208" s="56"/>
+      <c r="E208" s="56"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I208" s="68"/>
+      <c r="I208" s="74"/>
+      <c r="J208" s="56"/>
     </row>
-    <row r="209" spans="1:9" s="46" customFormat="1">
-      <c r="A209" s="46" t="s">
+    <row r="209" spans="1:10" s="34" customFormat="1">
+      <c r="A209" s="56" t="s">
         <v>1890</v>
       </c>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="56" t="s">
         <v>1895</v>
       </c>
-      <c r="C209" s="71" t="s">
+      <c r="C209" s="76" t="s">
         <v>2718</v>
       </c>
-      <c r="E209" s="49"/>
-      <c r="F209" s="49"/>
-      <c r="G209" s="49"/>
-      <c r="H209" s="49" t="s">
+      <c r="D209" s="56"/>
+      <c r="E209" s="56"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I209" s="68"/>
+      <c r="I209" s="74"/>
+      <c r="J209" s="56"/>
     </row>
-    <row r="210" spans="1:9" s="46" customFormat="1">
-      <c r="A210" s="46" t="s">
+    <row r="210" spans="1:10" s="34" customFormat="1">
+      <c r="A210" s="56" t="s">
         <v>1901</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="56" t="s">
         <v>1904</v>
       </c>
-      <c r="C210" s="71" t="s">
+      <c r="C210" s="76" t="s">
         <v>2719</v>
       </c>
-      <c r="E210" s="49"/>
-      <c r="F210" s="49"/>
-      <c r="G210" s="49"/>
-      <c r="H210" s="49" t="s">
+      <c r="D210" s="56"/>
+      <c r="E210" s="56"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="56"/>
+      <c r="H210" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I210" s="68"/>
+      <c r="I210" s="74"/>
+      <c r="J210" s="56"/>
     </row>
-    <row r="211" spans="1:9" s="46" customFormat="1">
-      <c r="A211" s="46" t="s">
+    <row r="211" spans="1:10" s="34" customFormat="1">
+      <c r="A211" s="56" t="s">
         <v>1909</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="56" t="s">
         <v>1913</v>
       </c>
-      <c r="C211" s="71" t="s">
+      <c r="C211" s="76" t="s">
         <v>2720</v>
       </c>
-      <c r="E211" s="49"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="49" t="s">
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I211" s="68"/>
+      <c r="I211" s="74"/>
+      <c r="J211" s="56"/>
     </row>
-    <row r="212" spans="1:9" s="46" customFormat="1">
-      <c r="A212" s="46" t="s">
+    <row r="212" spans="1:10" s="34" customFormat="1">
+      <c r="A212" s="56" t="s">
         <v>1923</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="56" t="s">
         <v>1926</v>
       </c>
-      <c r="C212" s="71" t="s">
+      <c r="C212" s="76" t="s">
         <v>2721</v>
       </c>
-      <c r="E212" s="49"/>
-      <c r="F212" s="49"/>
-      <c r="G212" s="49"/>
-      <c r="H212" s="49" t="s">
+      <c r="D212" s="56"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I212" s="68"/>
+      <c r="I212" s="74"/>
+      <c r="J212" s="56"/>
     </row>
-    <row r="213" spans="1:9" s="46" customFormat="1">
-      <c r="A213" s="46" t="s">
+    <row r="213" spans="1:10" s="34" customFormat="1">
+      <c r="A213" s="56" t="s">
         <v>1931</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="56" t="s">
         <v>1935</v>
       </c>
-      <c r="C213" s="71" t="s">
+      <c r="C213" s="76" t="s">
         <v>2722</v>
       </c>
-      <c r="E213" s="49"/>
-      <c r="F213" s="49"/>
-      <c r="G213" s="49"/>
-      <c r="H213" s="49" t="s">
+      <c r="D213" s="56"/>
+      <c r="E213" s="56"/>
+      <c r="F213" s="56"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I213" s="68"/>
+      <c r="I213" s="74"/>
+      <c r="J213" s="56"/>
     </row>
-    <row r="214" spans="1:9" s="46" customFormat="1">
-      <c r="A214" s="46" t="s">
+    <row r="214" spans="1:10" s="34" customFormat="1">
+      <c r="A214" s="56" t="s">
         <v>1940</v>
       </c>
-      <c r="B214" s="46" t="s">
+      <c r="B214" s="56" t="s">
         <v>1944</v>
       </c>
-      <c r="C214" s="71" t="s">
+      <c r="C214" s="76" t="s">
         <v>2723</v>
       </c>
-      <c r="E214" s="49"/>
-      <c r="F214" s="49"/>
-      <c r="G214" s="49"/>
-      <c r="H214" s="49" t="s">
+      <c r="D214" s="56"/>
+      <c r="E214" s="56"/>
+      <c r="F214" s="56"/>
+      <c r="G214" s="56"/>
+      <c r="H214" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I214" s="68"/>
+      <c r="I214" s="74"/>
+      <c r="J214" s="56"/>
     </row>
-    <row r="215" spans="1:9" s="46" customFormat="1">
-      <c r="A215" s="46" t="s">
+    <row r="215" spans="1:10" s="34" customFormat="1">
+      <c r="A215" s="56" t="s">
         <v>1949</v>
       </c>
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="56" t="s">
         <v>1952</v>
       </c>
-      <c r="C215" s="71" t="s">
+      <c r="C215" s="76" t="s">
         <v>2724</v>
       </c>
-      <c r="E215" s="49"/>
-      <c r="F215" s="49"/>
-      <c r="G215" s="49"/>
-      <c r="H215" s="49" t="s">
+      <c r="D215" s="56"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I215" s="68"/>
+      <c r="I215" s="74"/>
+      <c r="J215" s="56"/>
     </row>
-    <row r="216" spans="1:9" s="46" customFormat="1">
-      <c r="A216" s="46" t="s">
+    <row r="216" spans="1:10" s="34" customFormat="1">
+      <c r="A216" s="56" t="s">
         <v>1957</v>
       </c>
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="56" t="s">
         <v>1961</v>
       </c>
-      <c r="C216" s="71" t="s">
+      <c r="C216" s="76" t="s">
         <v>2725</v>
       </c>
-      <c r="E216" s="49"/>
-      <c r="F216" s="49"/>
-      <c r="G216" s="49"/>
-      <c r="H216" s="49" t="s">
+      <c r="D216" s="56"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="56"/>
+      <c r="G216" s="56"/>
+      <c r="H216" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I216" s="68"/>
+      <c r="I216" s="74"/>
+      <c r="J216" s="56"/>
     </row>
-    <row r="217" spans="1:9" s="46" customFormat="1">
-      <c r="A217" s="46" t="s">
+    <row r="217" spans="1:10" s="34" customFormat="1">
+      <c r="A217" s="56" t="s">
         <v>1967</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="56" t="s">
         <v>1971</v>
       </c>
-      <c r="C217" s="71" t="s">
+      <c r="C217" s="76" t="s">
         <v>2726</v>
       </c>
-      <c r="E217" s="49"/>
-      <c r="F217" s="49"/>
-      <c r="G217" s="49"/>
-      <c r="H217" s="49" t="s">
+      <c r="D217" s="56"/>
+      <c r="E217" s="56"/>
+      <c r="F217" s="56"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I217" s="68"/>
+      <c r="I217" s="74"/>
+      <c r="J217" s="56"/>
     </row>
-    <row r="218" spans="1:9" s="46" customFormat="1">
-      <c r="A218" s="46" t="s">
+    <row r="218" spans="1:10" s="34" customFormat="1">
+      <c r="A218" s="56" t="s">
         <v>1978</v>
       </c>
-      <c r="B218" s="46" t="s">
+      <c r="B218" s="56" t="s">
         <v>1982</v>
       </c>
-      <c r="C218" s="71" t="s">
+      <c r="C218" s="76" t="s">
         <v>2727</v>
       </c>
-      <c r="E218" s="49"/>
-      <c r="F218" s="49"/>
-      <c r="G218" s="49"/>
-      <c r="H218" s="49" t="s">
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I218" s="68"/>
+      <c r="I218" s="74"/>
+      <c r="J218" s="56"/>
     </row>
-    <row r="219" spans="1:9" s="46" customFormat="1">
-      <c r="A219" s="46" t="s">
+    <row r="219" spans="1:10" s="34" customFormat="1">
+      <c r="A219" s="56" t="s">
         <v>1987</v>
       </c>
-      <c r="B219" s="46" t="s">
+      <c r="B219" s="56" t="s">
         <v>1982</v>
       </c>
-      <c r="C219" s="71" t="s">
+      <c r="C219" s="76" t="s">
         <v>2727</v>
       </c>
-      <c r="E219" s="49"/>
-      <c r="F219" s="49"/>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49" t="s">
+      <c r="D219" s="56"/>
+      <c r="E219" s="56"/>
+      <c r="F219" s="56"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I219" s="68"/>
+      <c r="I219" s="74"/>
+      <c r="J219" s="56"/>
     </row>
-    <row r="220" spans="1:9" s="46" customFormat="1">
-      <c r="A220" s="46" t="s">
+    <row r="220" spans="1:10" s="34" customFormat="1">
+      <c r="A220" s="56" t="s">
         <v>1991</v>
       </c>
-      <c r="B220" s="46" t="s">
+      <c r="B220" s="56" t="s">
         <v>1994</v>
       </c>
-      <c r="C220" s="71" t="s">
+      <c r="C220" s="76" t="s">
         <v>2728</v>
       </c>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49" t="s">
+      <c r="D220" s="56"/>
+      <c r="E220" s="56"/>
+      <c r="F220" s="56"/>
+      <c r="G220" s="56"/>
+      <c r="H220" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I220" s="68"/>
+      <c r="I220" s="74"/>
+      <c r="J220" s="56"/>
     </row>
-    <row r="221" spans="1:9" s="46" customFormat="1">
-      <c r="A221" s="46" t="s">
+    <row r="221" spans="1:10" s="34" customFormat="1">
+      <c r="A221" s="56" t="s">
         <v>1999</v>
       </c>
-      <c r="B221" s="46" t="s">
+      <c r="B221" s="56" t="s">
         <v>2003</v>
       </c>
-      <c r="C221" s="71" t="s">
+      <c r="C221" s="76" t="s">
         <v>2729</v>
       </c>
-      <c r="D221" s="46" t="s">
+      <c r="D221" s="56" t="s">
         <v>2730</v>
       </c>
-      <c r="E221" s="49"/>
-      <c r="F221" s="49"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="49" t="s">
+      <c r="E221" s="56"/>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I221" s="68"/>
+      <c r="I221" s="74"/>
+      <c r="J221" s="56"/>
     </row>
-    <row r="222" spans="1:9" s="46" customFormat="1">
-      <c r="A222" s="46" t="s">
+    <row r="222" spans="1:10" s="34" customFormat="1">
+      <c r="A222" s="56" t="s">
         <v>2008</v>
       </c>
-      <c r="B222" s="46" t="s">
+      <c r="B222" s="56" t="s">
         <v>2011</v>
       </c>
-      <c r="C222" s="71" t="s">
+      <c r="C222" s="76" t="s">
         <v>2731</v>
       </c>
-      <c r="E222" s="49"/>
-      <c r="F222" s="49"/>
-      <c r="G222" s="49" t="s">
+      <c r="D222" s="56"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="56"/>
+      <c r="G222" s="56" t="s">
         <v>2863</v>
       </c>
-      <c r="H222" s="49" t="s">
+      <c r="H222" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I222" s="68"/>
+      <c r="I222" s="74"/>
+      <c r="J222" s="56"/>
     </row>
-    <row r="223" spans="1:9" s="46" customFormat="1">
-      <c r="A223" s="46" t="s">
+    <row r="223" spans="1:10" s="34" customFormat="1">
+      <c r="A223" s="56" t="s">
         <v>2016</v>
       </c>
-      <c r="B223" s="46" t="s">
+      <c r="B223" s="56" t="s">
         <v>2020</v>
       </c>
-      <c r="C223" s="71" t="s">
+      <c r="C223" s="76" t="s">
         <v>2732</v>
       </c>
-      <c r="E223" s="49"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="49"/>
-      <c r="H223" s="49" t="s">
+      <c r="D223" s="56"/>
+      <c r="E223" s="56"/>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I223" s="68"/>
+      <c r="I223" s="74"/>
+      <c r="J223" s="56"/>
     </row>
-    <row r="224" spans="1:9" s="46" customFormat="1">
-      <c r="A224" s="46" t="s">
+    <row r="224" spans="1:10" s="34" customFormat="1">
+      <c r="A224" s="56" t="s">
         <v>2025</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="56" t="s">
         <v>2029</v>
       </c>
-      <c r="C224" s="71" t="s">
+      <c r="C224" s="76" t="s">
         <v>2733</v>
       </c>
-      <c r="E224" s="49"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="49"/>
-      <c r="H224" s="49" t="s">
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="56"/>
+      <c r="H224" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I224" s="68"/>
+      <c r="I224" s="74"/>
+      <c r="J224" s="56"/>
     </row>
-    <row r="225" spans="1:10" s="46" customFormat="1">
-      <c r="A225" s="46" t="s">
+    <row r="225" spans="1:10" s="34" customFormat="1">
+      <c r="A225" s="56" t="s">
         <v>2035</v>
       </c>
-      <c r="B225" s="46" t="s">
+      <c r="B225" s="56" t="s">
         <v>2040</v>
       </c>
-      <c r="C225" s="71" t="s">
+      <c r="C225" s="76" t="s">
         <v>2734</v>
       </c>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="49" t="s">
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I225" s="68"/>
+      <c r="I225" s="74"/>
+      <c r="J225" s="56"/>
     </row>
-    <row r="226" spans="1:10" s="46" customFormat="1">
-      <c r="A226" s="46" t="s">
+    <row r="226" spans="1:10" s="34" customFormat="1">
+      <c r="A226" s="56" t="s">
         <v>2045</v>
       </c>
-      <c r="B226" s="46" t="s">
+      <c r="B226" s="56" t="s">
         <v>2050</v>
       </c>
-      <c r="C226" s="71" t="s">
+      <c r="C226" s="76" t="s">
         <v>2735</v>
       </c>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="49" t="s">
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="56"/>
+      <c r="G226" s="56"/>
+      <c r="H226" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I226" s="68"/>
+      <c r="I226" s="74"/>
+      <c r="J226" s="56"/>
     </row>
-    <row r="227" spans="1:10" s="46" customFormat="1">
-      <c r="A227" s="46" t="s">
+    <row r="227" spans="1:10" s="34" customFormat="1">
+      <c r="A227" s="56" t="s">
         <v>2056</v>
       </c>
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="56" t="s">
         <v>2059</v>
       </c>
-      <c r="C227" s="71" t="s">
+      <c r="C227" s="76" t="s">
         <v>2736</v>
       </c>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49"/>
-      <c r="G227" s="49"/>
-      <c r="H227" s="49" t="s">
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="56"/>
+      <c r="G227" s="56"/>
+      <c r="H227" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I227" s="68"/>
+      <c r="I227" s="74"/>
+      <c r="J227" s="56"/>
     </row>
-    <row r="228" spans="1:10" s="46" customFormat="1">
-      <c r="A228" s="46" t="s">
+    <row r="228" spans="1:10" s="34" customFormat="1">
+      <c r="A228" s="56" t="s">
         <v>2065</v>
       </c>
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="56" t="s">
         <v>2070</v>
       </c>
-      <c r="C228" s="71" t="s">
+      <c r="C228" s="76" t="s">
         <v>2737</v>
       </c>
-      <c r="E228" s="49"/>
-      <c r="F228" s="49"/>
-      <c r="G228" s="49"/>
-      <c r="H228" s="49" t="s">
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="56"/>
+      <c r="G228" s="56"/>
+      <c r="H228" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I228" s="68"/>
+      <c r="I228" s="74"/>
+      <c r="J228" s="56"/>
     </row>
-    <row r="229" spans="1:10" s="46" customFormat="1">
-      <c r="A229" s="46" t="s">
+    <row r="229" spans="1:10" s="34" customFormat="1">
+      <c r="A229" s="56" t="s">
         <v>2075</v>
       </c>
-      <c r="B229" s="46" t="s">
+      <c r="B229" s="56" t="s">
         <v>2079</v>
       </c>
-      <c r="C229" s="71" t="s">
+      <c r="C229" s="76" t="s">
         <v>2738</v>
       </c>
-      <c r="E229" s="49"/>
-      <c r="F229" s="49"/>
-      <c r="G229" s="49"/>
-      <c r="H229" s="49" t="s">
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I229" s="68"/>
+      <c r="I229" s="74"/>
+      <c r="J229" s="56"/>
     </row>
-    <row r="230" spans="1:10" s="46" customFormat="1">
-      <c r="A230" s="46" t="s">
+    <row r="230" spans="1:10" s="34" customFormat="1">
+      <c r="A230" s="56" t="s">
         <v>2086</v>
       </c>
-      <c r="B230" s="46" t="s">
+      <c r="B230" s="56" t="s">
         <v>2091</v>
       </c>
-      <c r="C230" s="71" t="s">
+      <c r="C230" s="76" t="s">
         <v>2739</v>
       </c>
-      <c r="E230" s="49"/>
-      <c r="F230" s="49"/>
-      <c r="G230" s="49"/>
-      <c r="H230" s="49" t="s">
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I230" s="68"/>
+      <c r="I230" s="74"/>
+      <c r="J230" s="56"/>
     </row>
-    <row r="231" spans="1:10" s="46" customFormat="1">
-      <c r="A231" s="46" t="s">
+    <row r="231" spans="1:10" s="34" customFormat="1">
+      <c r="A231" s="56" t="s">
         <v>2096</v>
       </c>
-      <c r="B231" s="46" t="s">
+      <c r="B231" s="56" t="s">
         <v>1372</v>
       </c>
-      <c r="C231" s="71" t="s">
+      <c r="C231" s="76" t="s">
         <v>2740</v>
       </c>
-      <c r="E231" s="49"/>
-      <c r="F231" s="49"/>
-      <c r="G231" s="49"/>
-      <c r="H231" s="49" t="s">
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I231" s="68"/>
+      <c r="I231" s="74"/>
+      <c r="J231" s="56"/>
     </row>
-    <row r="232" spans="1:10" s="46" customFormat="1">
-      <c r="A232" s="46" t="s">
+    <row r="232" spans="1:10" s="34" customFormat="1">
+      <c r="A232" s="56" t="s">
         <v>2096</v>
       </c>
-      <c r="B232" s="46" t="s">
+      <c r="B232" s="56" t="s">
         <v>2741</v>
       </c>
-      <c r="C232" s="71" t="s">
+      <c r="C232" s="76" t="s">
         <v>2740</v>
       </c>
-      <c r="E232" s="49"/>
-      <c r="F232" s="49"/>
-      <c r="G232" s="49"/>
-      <c r="H232" s="49" t="s">
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="56"/>
+      <c r="G232" s="56"/>
+      <c r="H232" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I232" s="68"/>
+      <c r="I232" s="74"/>
+      <c r="J232" s="56"/>
     </row>
-    <row r="233" spans="1:10" s="46" customFormat="1">
-      <c r="A233" s="46" t="s">
+    <row r="233" spans="1:10" s="34" customFormat="1">
+      <c r="A233" s="56" t="s">
         <v>2096</v>
       </c>
-      <c r="B233" s="46" t="s">
+      <c r="B233" s="56" t="s">
         <v>2742</v>
       </c>
-      <c r="C233" s="71" t="s">
+      <c r="C233" s="76" t="s">
         <v>2743</v>
       </c>
-      <c r="E233" s="49"/>
-      <c r="F233" s="49"/>
-      <c r="G233" s="49"/>
-      <c r="H233" s="49" t="s">
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I233" s="68"/>
+      <c r="I233" s="74"/>
+      <c r="J233" s="56"/>
     </row>
-    <row r="234" spans="1:10" s="46" customFormat="1">
-      <c r="A234" s="46" t="s">
+    <row r="234" spans="1:10" s="34" customFormat="1">
+      <c r="A234" s="56" t="s">
         <v>2096</v>
       </c>
-      <c r="B234" s="46" t="s">
+      <c r="B234" s="56" t="s">
         <v>2744</v>
       </c>
-      <c r="C234" s="71" t="s">
+      <c r="C234" s="76" t="s">
         <v>2745</v>
       </c>
-      <c r="E234" s="49"/>
-      <c r="F234" s="49"/>
-      <c r="G234" s="49"/>
-      <c r="H234" s="49" t="s">
+      <c r="D234" s="56"/>
+      <c r="E234" s="56"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="56"/>
+      <c r="H234" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I234" s="68"/>
+      <c r="I234" s="74"/>
+      <c r="J234" s="56"/>
     </row>
-    <row r="235" spans="1:10" s="46" customFormat="1">
-      <c r="A235" s="46" t="s">
+    <row r="235" spans="1:10" s="34" customFormat="1">
+      <c r="A235" s="56" t="s">
         <v>2106</v>
       </c>
-      <c r="B235" s="46" t="s">
+      <c r="B235" s="56" t="s">
         <v>2110</v>
       </c>
-      <c r="C235" s="71" t="s">
+      <c r="C235" s="76" t="s">
         <v>2746</v>
       </c>
-      <c r="E235" s="49"/>
-      <c r="F235" s="49"/>
-      <c r="G235" s="49"/>
-      <c r="H235" s="49" t="s">
+      <c r="D235" s="56"/>
+      <c r="E235" s="56"/>
+      <c r="F235" s="56"/>
+      <c r="G235" s="56"/>
+      <c r="H235" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I235" s="68"/>
+      <c r="I235" s="74"/>
+      <c r="J235" s="56"/>
     </row>
-    <row r="236" spans="1:10" s="46" customFormat="1">
-      <c r="A236" s="46" t="s">
+    <row r="236" spans="1:10" s="34" customFormat="1">
+      <c r="A236" s="56" t="s">
         <v>2117</v>
       </c>
-      <c r="B236" s="46" t="s">
+      <c r="B236" s="56" t="s">
         <v>2121</v>
       </c>
-      <c r="C236" s="71" t="s">
+      <c r="C236" s="76" t="s">
         <v>2871</v>
       </c>
-      <c r="E236" s="49"/>
-      <c r="F236" s="49"/>
-      <c r="G236" s="49"/>
-      <c r="H236" s="49" t="s">
+      <c r="D236" s="56"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I236" s="68"/>
-      <c r="J236" s="46" t="s">
+      <c r="I236" s="74"/>
+      <c r="J236" s="56" t="s">
         <v>2875</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="46" customFormat="1">
-      <c r="A237" s="46" t="s">
+    <row r="237" spans="1:10" s="34" customFormat="1">
+      <c r="A237" s="56" t="s">
         <v>2127</v>
       </c>
-      <c r="B237" s="46" t="s">
+      <c r="B237" s="56" t="s">
         <v>2131</v>
       </c>
-      <c r="C237" s="71" t="s">
+      <c r="C237" s="76" t="s">
         <v>2878</v>
       </c>
-      <c r="E237" s="49"/>
-      <c r="F237" s="49"/>
-      <c r="G237" s="49"/>
-      <c r="H237" s="49" t="s">
+      <c r="D237" s="56"/>
+      <c r="E237" s="56"/>
+      <c r="F237" s="56"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I237" s="68"/>
-      <c r="J237" s="46" t="s">
+      <c r="I237" s="74"/>
+      <c r="J237" s="56" t="s">
         <v>2875</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="46" customFormat="1">
-      <c r="A238" s="46" t="s">
+    <row r="238" spans="1:10" s="34" customFormat="1">
+      <c r="A238" s="56" t="s">
         <v>2137</v>
       </c>
-      <c r="B238" s="46" t="s">
+      <c r="B238" s="56" t="s">
         <v>2141</v>
       </c>
-      <c r="C238" s="71" t="s">
+      <c r="C238" s="76" t="s">
         <v>2747</v>
       </c>
-      <c r="E238" s="49"/>
-      <c r="F238" s="49"/>
-      <c r="G238" s="49"/>
-      <c r="H238" s="49" t="s">
+      <c r="D238" s="56"/>
+      <c r="E238" s="56"/>
+      <c r="F238" s="56"/>
+      <c r="G238" s="56"/>
+      <c r="H238" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I238" s="68"/>
+      <c r="I238" s="74"/>
+      <c r="J238" s="56"/>
     </row>
-    <row r="239" spans="1:10" s="46" customFormat="1">
-      <c r="A239" s="46" t="s">
+    <row r="239" spans="1:10" s="34" customFormat="1">
+      <c r="A239" s="56" t="s">
         <v>2147</v>
       </c>
-      <c r="B239" s="46" t="s">
+      <c r="B239" s="56" t="s">
         <v>2151</v>
       </c>
-      <c r="C239" s="71" t="s">
+      <c r="C239" s="76" t="s">
         <v>2748</v>
       </c>
-      <c r="E239" s="49"/>
-      <c r="F239" s="49"/>
-      <c r="G239" s="49"/>
-      <c r="H239" s="49" t="s">
+      <c r="D239" s="56"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="56"/>
+      <c r="G239" s="56"/>
+      <c r="H239" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I239" s="68"/>
+      <c r="I239" s="74"/>
+      <c r="J239" s="56"/>
     </row>
-    <row r="240" spans="1:10" s="46" customFormat="1">
-      <c r="A240" s="46" t="s">
+    <row r="240" spans="1:10" s="34" customFormat="1">
+      <c r="A240" s="56" t="s">
         <v>2156</v>
       </c>
-      <c r="B240" s="46" t="s">
+      <c r="B240" s="56" t="s">
         <v>2161</v>
       </c>
-      <c r="C240" s="71" t="s">
+      <c r="C240" s="76" t="s">
         <v>2749</v>
       </c>
-      <c r="E240" s="49"/>
-      <c r="F240" s="49"/>
-      <c r="G240" s="49"/>
-      <c r="H240" s="49" t="s">
+      <c r="D240" s="56"/>
+      <c r="E240" s="56"/>
+      <c r="F240" s="56"/>
+      <c r="G240" s="56"/>
+      <c r="H240" s="56" t="s">
         <v>2862</v>
       </c>
-      <c r="I240" s="68"/>
+      <c r="I240" s="74"/>
+      <c r="J240" s="56"/>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="28" t="s">
+    <row r="241" spans="1:10">
+      <c r="A241" s="41" t="s">
         <v>2169</v>
       </c>
-      <c r="B241" s="28" t="s">
+      <c r="B241" s="41" t="s">
         <v>2176</v>
       </c>
       <c r="C241" s="97"/>
-      <c r="D241" s="28"/>
+      <c r="D241" s="41"/>
+      <c r="E241" s="41"/>
+      <c r="F241" s="41"/>
+      <c r="G241" s="41"/>
+      <c r="H241" s="41"/>
+      <c r="I241" s="43"/>
+      <c r="J241" s="41"/>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="28" t="s">
+    <row r="242" spans="1:10">
+      <c r="A242" s="41" t="s">
         <v>2181</v>
       </c>
-      <c r="B242" s="28" t="s">
+      <c r="B242" s="41" t="s">
         <v>2186</v>
       </c>
       <c r="C242" s="97" t="s">
         <v>2750</v>
       </c>
-      <c r="D242" s="28"/>
+      <c r="D242" s="41"/>
+      <c r="E242" s="41"/>
+      <c r="F242" s="41"/>
+      <c r="G242" s="41"/>
+      <c r="H242" s="41"/>
+      <c r="I242" s="43"/>
+      <c r="J242" s="41"/>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="28" t="s">
+    <row r="243" spans="1:10">
+      <c r="A243" s="41" t="s">
         <v>2192</v>
       </c>
-      <c r="B243" s="28" t="s">
+      <c r="B243" s="41" t="s">
         <v>2196</v>
       </c>
       <c r="C243" s="97"/>
-      <c r="D243" s="28"/>
+      <c r="D243" s="41"/>
+      <c r="E243" s="41"/>
+      <c r="F243" s="41"/>
+      <c r="G243" s="41"/>
+      <c r="H243" s="41"/>
+      <c r="I243" s="43"/>
+      <c r="J243" s="41"/>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="28" t="s">
+    <row r="244" spans="1:10">
+      <c r="A244" s="41" t="s">
         <v>2202</v>
       </c>
-      <c r="B244" s="28" t="s">
+      <c r="B244" s="41" t="s">
         <v>2206</v>
       </c>
       <c r="C244" s="97"/>
-      <c r="D244" s="28"/>
+      <c r="D244" s="41"/>
+      <c r="E244" s="41"/>
+      <c r="F244" s="41"/>
+      <c r="G244" s="41"/>
+      <c r="H244" s="41"/>
+      <c r="I244" s="43"/>
+      <c r="J244" s="41"/>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="28" t="s">
+    <row r="245" spans="1:10">
+      <c r="A245" s="41" t="s">
         <v>2213</v>
       </c>
-      <c r="B245" s="28" t="s">
+      <c r="B245" s="41" t="s">
         <v>2217</v>
       </c>
       <c r="C245" s="97"/>
-      <c r="D245" s="28"/>
+      <c r="D245" s="41"/>
+      <c r="E245" s="41"/>
+      <c r="F245" s="41"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="41"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="41"/>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="28" t="s">
+    <row r="246" spans="1:10">
+      <c r="A246" s="41" t="s">
         <v>2224</v>
       </c>
-      <c r="B246" s="28" t="s">
+      <c r="B246" s="41" t="s">
         <v>2230</v>
       </c>
       <c r="C246" s="97" t="s">
         <v>2751</v>
       </c>
-      <c r="D246" s="28"/>
+      <c r="D246" s="41"/>
+      <c r="E246" s="41"/>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
+      <c r="H246" s="41"/>
+      <c r="I246" s="43"/>
+      <c r="J246" s="41"/>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="28" t="s">
+    <row r="247" spans="1:10">
+      <c r="A247" s="41" t="s">
         <v>2236</v>
       </c>
-      <c r="B247" s="28" t="s">
+      <c r="B247" s="41" t="s">
         <v>2240</v>
       </c>
       <c r="C247" s="97"/>
-      <c r="D247" s="28"/>
+      <c r="D247" s="41"/>
+      <c r="E247" s="41"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="41"/>
+      <c r="I247" s="43"/>
+      <c r="J247" s="41"/>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="28" t="s">
+    <row r="248" spans="1:10">
+      <c r="A248" s="41" t="s">
         <v>2245</v>
       </c>
-      <c r="B248" s="28" t="s">
+      <c r="B248" s="41" t="s">
         <v>2250</v>
       </c>
       <c r="C248" s="97"/>
-      <c r="D248" s="28"/>
+      <c r="D248" s="41"/>
+      <c r="E248" s="41"/>
+      <c r="F248" s="41"/>
+      <c r="G248" s="41"/>
+      <c r="H248" s="41"/>
+      <c r="I248" s="43"/>
+      <c r="J248" s="41"/>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="28" t="s">
+    <row r="249" spans="1:10">
+      <c r="A249" s="41" t="s">
         <v>2256</v>
       </c>
-      <c r="B249" s="28" t="s">
+      <c r="B249" s="41" t="s">
         <v>2260</v>
       </c>
       <c r="C249" s="97"/>
-      <c r="D249" s="28"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="41"/>
+      <c r="F249" s="41"/>
+      <c r="G249" s="41"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="43"/>
+      <c r="J249" s="41"/>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="28" t="s">
+    <row r="250" spans="1:10">
+      <c r="A250" s="41" t="s">
         <v>2265</v>
       </c>
-      <c r="B250" s="28" t="s">
+      <c r="B250" s="41" t="s">
         <v>2270</v>
       </c>
       <c r="C250" s="97"/>
-      <c r="D250" s="28"/>
+      <c r="D250" s="41"/>
+      <c r="E250" s="41"/>
+      <c r="F250" s="41"/>
+      <c r="G250" s="41"/>
+      <c r="H250" s="41"/>
+      <c r="I250" s="43"/>
+      <c r="J250" s="41"/>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="28" t="s">
+    <row r="251" spans="1:10">
+      <c r="A251" s="41" t="s">
         <v>2276</v>
       </c>
-      <c r="B251" s="28" t="s">
+      <c r="B251" s="41" t="s">
         <v>2280</v>
       </c>
       <c r="C251" s="97"/>
-      <c r="D251" s="28"/>
+      <c r="D251" s="41"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+      <c r="G251" s="41"/>
+      <c r="H251" s="41"/>
+      <c r="I251" s="43"/>
+      <c r="J251" s="41"/>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="28" t="s">
+    <row r="252" spans="1:10">
+      <c r="A252" s="41" t="s">
         <v>2286</v>
       </c>
-      <c r="B252" s="28" t="s">
+      <c r="B252" s="41" t="s">
         <v>2290</v>
       </c>
       <c r="C252" s="97"/>
-      <c r="D252" s="28"/>
+      <c r="D252" s="41"/>
+      <c r="E252" s="41"/>
+      <c r="F252" s="41"/>
+      <c r="G252" s="41"/>
+      <c r="H252" s="41"/>
+      <c r="I252" s="43"/>
+      <c r="J252" s="41"/>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="28" t="s">
+    <row r="253" spans="1:10">
+      <c r="A253" s="41" t="s">
         <v>2297</v>
       </c>
-      <c r="B253" s="28" t="s">
+      <c r="B253" s="41" t="s">
         <v>2302</v>
       </c>
       <c r="C253" s="97"/>
-      <c r="D253" s="28"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="41"/>
+      <c r="I253" s="43"/>
+      <c r="J253" s="41"/>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="28" t="s">
+    <row r="254" spans="1:10">
+      <c r="A254" s="41" t="s">
         <v>2307</v>
       </c>
-      <c r="B254" s="28" t="s">
+      <c r="B254" s="41" t="s">
         <v>2311</v>
       </c>
       <c r="C254" s="97"/>
-      <c r="D254" s="28"/>
+      <c r="D254" s="41"/>
+      <c r="E254" s="41"/>
+      <c r="F254" s="41"/>
+      <c r="G254" s="41"/>
+      <c r="H254" s="41"/>
+      <c r="I254" s="43"/>
+      <c r="J254" s="41"/>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="28" t="s">
+    <row r="255" spans="1:10">
+      <c r="A255" s="41" t="s">
         <v>2316</v>
       </c>
-      <c r="B255" s="28" t="s">
+      <c r="B255" s="41" t="s">
         <v>2320</v>
       </c>
       <c r="C255" s="97"/>
-      <c r="D255" s="28"/>
+      <c r="D255" s="41"/>
+      <c r="E255" s="41"/>
+      <c r="F255" s="41"/>
+      <c r="G255" s="41"/>
+      <c r="H255" s="41"/>
+      <c r="I255" s="43"/>
+      <c r="J255" s="41"/>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="28" t="s">
+    <row r="256" spans="1:10">
+      <c r="A256" s="41" t="s">
         <v>2325</v>
       </c>
-      <c r="B256" s="28" t="s">
+      <c r="B256" s="41" t="s">
         <v>2329</v>
       </c>
       <c r="C256" s="97"/>
-      <c r="D256" s="28"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="41"/>
+      <c r="I256" s="43"/>
+      <c r="J256" s="41"/>
     </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="28" t="s">
+    <row r="257" spans="1:10">
+      <c r="A257" s="41" t="s">
         <v>2337</v>
       </c>
-      <c r="B257" s="28" t="s">
+      <c r="B257" s="41" t="s">
         <v>2342</v>
       </c>
       <c r="C257" s="97"/>
-      <c r="D257" s="28"/>
-      <c r="I257" s="41">
+      <c r="D257" s="41"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="41"/>
+      <c r="G257" s="41"/>
+      <c r="H257" s="41"/>
+      <c r="I257" s="51">
         <v>78343195782053</v>
       </c>
+      <c r="J257" s="41"/>
     </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="28" t="s">
+    <row r="258" spans="1:10">
+      <c r="A258" s="41" t="s">
         <v>2348</v>
       </c>
-      <c r="B258" s="28" t="s">
+      <c r="B258" s="41" t="s">
         <v>2352</v>
       </c>
       <c r="C258" s="97"/>
-      <c r="D258" s="28"/>
+      <c r="D258" s="41"/>
+      <c r="E258" s="41"/>
+      <c r="F258" s="41"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="41"/>
+      <c r="I258" s="43"/>
+      <c r="J258" s="41"/>
     </row>
-    <row r="259" spans="1:9">
-      <c r="A259" s="28" t="s">
+    <row r="259" spans="1:10">
+      <c r="A259" s="41" t="s">
         <v>2359</v>
       </c>
-      <c r="B259" s="28" t="s">
+      <c r="B259" s="41" t="s">
         <v>2362</v>
       </c>
       <c r="C259" s="97"/>
-      <c r="D259" s="28"/>
+      <c r="D259" s="41"/>
+      <c r="E259" s="41"/>
+      <c r="F259" s="41"/>
+      <c r="G259" s="41"/>
+      <c r="H259" s="41"/>
+      <c r="I259" s="43"/>
+      <c r="J259" s="41"/>
     </row>
-    <row r="260" spans="1:9">
-      <c r="A260" s="28" t="s">
+    <row r="260" spans="1:10">
+      <c r="A260" s="41" t="s">
         <v>2368</v>
       </c>
-      <c r="B260" s="28" t="s">
+      <c r="B260" s="41" t="s">
         <v>2372</v>
       </c>
       <c r="C260" s="97"/>
-      <c r="D260" s="28"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="41"/>
+      <c r="F260" s="41"/>
+      <c r="G260" s="41"/>
+      <c r="H260" s="41"/>
+      <c r="I260" s="43"/>
+      <c r="J260" s="41"/>
     </row>
-    <row r="261" spans="1:9">
-      <c r="A261" s="28" t="s">
+    <row r="261" spans="1:10">
+      <c r="A261" s="41" t="s">
         <v>2379</v>
       </c>
-      <c r="B261" s="28" t="s">
+      <c r="B261" s="41" t="s">
         <v>2384</v>
       </c>
       <c r="C261" s="97"/>
-      <c r="D261" s="28"/>
+      <c r="D261" s="41"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="41"/>
+      <c r="G261" s="41"/>
+      <c r="H261" s="41"/>
+      <c r="I261" s="43"/>
+      <c r="J261" s="41"/>
     </row>
-    <row r="262" spans="1:9">
-      <c r="A262" s="28" t="s">
+    <row r="262" spans="1:10">
+      <c r="A262" s="41" t="s">
         <v>2391</v>
       </c>
-      <c r="B262" s="28" t="s">
+      <c r="B262" s="41" t="s">
         <v>2395</v>
       </c>
       <c r="C262" s="97"/>
-      <c r="D262" s="28"/>
+      <c r="D262" s="41"/>
+      <c r="E262" s="41"/>
+      <c r="F262" s="41"/>
+      <c r="G262" s="41"/>
+      <c r="H262" s="41"/>
+      <c r="I262" s="43"/>
+      <c r="J262" s="41"/>
     </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="28" t="s">
+    <row r="263" spans="1:10">
+      <c r="A263" s="41" t="s">
         <v>2401</v>
       </c>
-      <c r="B263" s="28" t="s">
+      <c r="B263" s="41" t="s">
         <v>2405</v>
       </c>
       <c r="C263" s="97"/>
-      <c r="D263" s="28"/>
+      <c r="D263" s="41"/>
+      <c r="E263" s="41"/>
+      <c r="F263" s="41"/>
+      <c r="G263" s="41"/>
+      <c r="H263" s="41"/>
+      <c r="I263" s="43"/>
+      <c r="J263" s="41"/>
     </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="28" t="s">
+    <row r="264" spans="1:10">
+      <c r="A264" s="41" t="s">
         <v>2410</v>
       </c>
-      <c r="B264" s="28" t="s">
+      <c r="B264" s="41" t="s">
         <v>2415</v>
       </c>
       <c r="C264" s="97"/>
-      <c r="D264" s="28"/>
+      <c r="D264" s="41"/>
+      <c r="E264" s="41"/>
+      <c r="F264" s="41"/>
+      <c r="G264" s="41"/>
+      <c r="H264" s="41"/>
+      <c r="I264" s="43"/>
+      <c r="J264" s="41"/>
     </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="28" t="s">
+    <row r="265" spans="1:10">
+      <c r="A265" s="41" t="s">
         <v>2422</v>
       </c>
-      <c r="B265" s="28" t="s">
+      <c r="B265" s="41" t="s">
         <v>2426</v>
       </c>
       <c r="C265" s="97"/>
-      <c r="D265" s="28"/>
+      <c r="D265" s="41"/>
+      <c r="E265" s="41"/>
+      <c r="F265" s="41"/>
+      <c r="G265" s="41"/>
+      <c r="H265" s="41"/>
+      <c r="I265" s="43"/>
+      <c r="J265" s="41"/>
     </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="28" t="s">
+    <row r="266" spans="1:10">
+      <c r="A266" s="41" t="s">
         <v>2431</v>
       </c>
-      <c r="B266" s="28" t="s">
+      <c r="B266" s="41" t="s">
         <v>2436</v>
       </c>
       <c r="C266" s="97"/>
-      <c r="D266" s="28"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="41"/>
+      <c r="F266" s="41"/>
+      <c r="G266" s="41"/>
+      <c r="H266" s="41"/>
+      <c r="I266" s="43"/>
+      <c r="J266" s="41"/>
     </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="28" t="s">
+    <row r="267" spans="1:10">
+      <c r="A267" s="41" t="s">
         <v>2441</v>
       </c>
-      <c r="B267" s="28" t="s">
+      <c r="B267" s="41" t="s">
         <v>2446</v>
       </c>
       <c r="C267" s="97"/>
-      <c r="D267" s="28"/>
+      <c r="D267" s="41"/>
+      <c r="E267" s="41"/>
+      <c r="F267" s="41"/>
+      <c r="G267" s="41"/>
+      <c r="H267" s="41"/>
+      <c r="I267" s="43"/>
+      <c r="J267" s="41"/>
     </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="28" t="s">
+    <row r="268" spans="1:10">
+      <c r="A268" s="41" t="s">
         <v>2451</v>
       </c>
-      <c r="B268" s="28" t="s">
+      <c r="B268" s="41" t="s">
         <v>2455</v>
       </c>
       <c r="C268" s="97"/>
-      <c r="D268" s="28"/>
+      <c r="D268" s="41"/>
+      <c r="E268" s="41"/>
+      <c r="F268" s="41"/>
+      <c r="G268" s="41"/>
+      <c r="H268" s="41"/>
+      <c r="I268" s="43"/>
+      <c r="J268" s="41"/>
     </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="28" t="s">
+    <row r="269" spans="1:10">
+      <c r="A269" s="41" t="s">
         <v>2461</v>
       </c>
-      <c r="B269" s="28" t="s">
+      <c r="B269" s="41" t="s">
         <v>2465</v>
       </c>
       <c r="C269" s="97"/>
-      <c r="D269" s="28"/>
+      <c r="D269" s="41"/>
+      <c r="E269" s="41"/>
+      <c r="F269" s="41"/>
+      <c r="G269" s="41"/>
+      <c r="H269" s="41"/>
+      <c r="I269" s="43"/>
+      <c r="J269" s="41"/>
     </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="28" t="s">
+    <row r="270" spans="1:10">
+      <c r="A270" s="41" t="s">
         <v>2471</v>
       </c>
-      <c r="B270" s="28" t="s">
+      <c r="B270" s="41" t="s">
         <v>2475</v>
       </c>
       <c r="C270" s="97"/>
-      <c r="D270" s="28"/>
+      <c r="D270" s="41"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="41"/>
+      <c r="G270" s="41"/>
+      <c r="H270" s="41"/>
+      <c r="I270" s="43"/>
+      <c r="J270" s="41"/>
     </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="28" t="s">
+    <row r="271" spans="1:10">
+      <c r="A271" s="41" t="s">
         <v>2481</v>
       </c>
-      <c r="B271" s="28" t="s">
+      <c r="B271" s="41" t="s">
         <v>2485</v>
       </c>
       <c r="C271" s="97"/>
-      <c r="D271" s="28"/>
+      <c r="D271" s="41"/>
+      <c r="E271" s="41"/>
+      <c r="F271" s="41"/>
+      <c r="G271" s="41"/>
+      <c r="H271" s="41"/>
+      <c r="I271" s="43"/>
+      <c r="J271" s="41"/>
     </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="28" t="s">
+    <row r="272" spans="1:10">
+      <c r="A272" s="41" t="s">
         <v>2492</v>
       </c>
-      <c r="B272" s="28" t="s">
+      <c r="B272" s="41" t="s">
         <v>2496</v>
       </c>
       <c r="C272" s="97"/>
-      <c r="D272" s="28"/>
+      <c r="D272" s="41"/>
+      <c r="E272" s="41"/>
+      <c r="F272" s="41"/>
+      <c r="G272" s="41"/>
+      <c r="H272" s="41"/>
+      <c r="I272" s="43"/>
+      <c r="J272" s="41"/>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="28" t="s">
+    <row r="273" spans="1:10">
+      <c r="A273" s="41" t="s">
         <v>2501</v>
       </c>
-      <c r="B273" s="28" t="s">
+      <c r="B273" s="41" t="s">
         <v>2505</v>
       </c>
       <c r="C273" s="97"/>
-      <c r="D273" s="28"/>
+      <c r="D273" s="41"/>
+      <c r="E273" s="41"/>
+      <c r="F273" s="41"/>
+      <c r="G273" s="41"/>
+      <c r="H273" s="41"/>
+      <c r="I273" s="43"/>
+      <c r="J273" s="41"/>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="28" t="s">
+    <row r="274" spans="1:10">
+      <c r="A274" s="41" t="s">
         <v>2511</v>
       </c>
-      <c r="B274" s="28" t="s">
+      <c r="B274" s="41" t="s">
         <v>2515</v>
       </c>
       <c r="C274" s="97"/>
-      <c r="D274" s="28"/>
+      <c r="D274" s="41"/>
+      <c r="E274" s="41"/>
+      <c r="F274" s="41"/>
+      <c r="G274" s="41"/>
+      <c r="H274" s="41"/>
+      <c r="I274" s="43"/>
+      <c r="J274" s="41"/>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="28" t="s">
+    <row r="275" spans="1:10">
+      <c r="A275" s="41" t="s">
         <v>2521</v>
       </c>
-      <c r="B275" s="28" t="s">
+      <c r="B275" s="41" t="s">
         <v>2526</v>
       </c>
       <c r="C275" s="97"/>
-      <c r="D275" s="28"/>
+      <c r="D275" s="41"/>
+      <c r="E275" s="41"/>
+      <c r="F275" s="41"/>
+      <c r="G275" s="41"/>
+      <c r="H275" s="41"/>
+      <c r="I275" s="43"/>
+      <c r="J275" s="41"/>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="28" t="s">
+    <row r="276" spans="1:10">
+      <c r="A276" s="41" t="s">
         <v>2533</v>
       </c>
-      <c r="B276" s="28" t="s">
+      <c r="B276" s="41" t="s">
         <v>2537</v>
       </c>
       <c r="C276" s="97"/>
-      <c r="D276" s="28"/>
+      <c r="D276" s="41"/>
+      <c r="E276" s="41"/>
+      <c r="F276" s="41"/>
+      <c r="G276" s="41"/>
+      <c r="H276" s="41"/>
+      <c r="I276" s="43"/>
+      <c r="J276" s="41"/>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="28" t="s">
+    <row r="277" spans="1:10">
+      <c r="A277" s="41" t="s">
         <v>2542</v>
       </c>
-      <c r="B277" s="28" t="s">
+      <c r="B277" s="41" t="s">
         <v>2546</v>
       </c>
       <c r="C277" s="97"/>
-      <c r="D277" s="28"/>
+      <c r="D277" s="41"/>
+      <c r="E277" s="41"/>
+      <c r="F277" s="41"/>
+      <c r="G277" s="41"/>
+      <c r="H277" s="41"/>
+      <c r="I277" s="43"/>
+      <c r="J277" s="41"/>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="28" t="s">
+    <row r="278" spans="1:10">
+      <c r="A278" s="41" t="s">
         <v>2552</v>
       </c>
-      <c r="B278" s="28" t="s">
+      <c r="B278" s="41" t="s">
         <v>2559</v>
       </c>
       <c r="C278" s="97"/>
-      <c r="D278" s="28"/>
+      <c r="D278" s="41"/>
+      <c r="E278" s="41"/>
+      <c r="F278" s="41"/>
+      <c r="G278" s="41"/>
+      <c r="H278" s="41"/>
+      <c r="I278" s="43"/>
+      <c r="J278" s="41"/>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="28" t="s">
+    <row r="279" spans="1:10">
+      <c r="A279" s="41" t="s">
         <v>2566</v>
       </c>
-      <c r="B279" s="28" t="s">
+      <c r="B279" s="41" t="s">
         <v>2572</v>
       </c>
       <c r="C279" s="97"/>
-      <c r="D279" s="28"/>
+      <c r="D279" s="41"/>
+      <c r="E279" s="41"/>
+      <c r="F279" s="41"/>
+      <c r="G279" s="41"/>
+      <c r="H279" s="41"/>
+      <c r="I279" s="43"/>
+      <c r="J279" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orders_export1265-6-2.xlsx
+++ b/orders_export1265-6-2.xlsx
@@ -8712,7 +8712,7 @@
     <t>LT112191375CN</t>
   </si>
   <si>
-    <t>version 1.0</t>
+    <t>version 2.0</t>
   </si>
 </sst>
 </file>
@@ -70047,7 +70047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/orders_export1265-6-2.xlsx
+++ b/orders_export1265-6-2.xlsx
@@ -8712,7 +8712,7 @@
     <t>LT112191375CN</t>
   </si>
   <si>
-    <t>version 2.0</t>
+    <t>version 3.0</t>
   </si>
 </sst>
 </file>
@@ -70047,7 +70047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/orders_export1265-6-2.xlsx
+++ b/orders_export1265-6-2.xlsx
@@ -8712,7 +8712,7 @@
     <t>LT112191375CN</t>
   </si>
   <si>
-    <t>version 3.0</t>
+    <t>version 4.0</t>
   </si>
 </sst>
 </file>
@@ -70047,7 +70047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/orders_export1265-6-2.xlsx
+++ b/orders_export1265-6-2.xlsx
@@ -8712,7 +8712,7 @@
     <t>LT112191375CN</t>
   </si>
   <si>
-    <t>version 4.0</t>
+    <t>version 5.0</t>
   </si>
 </sst>
 </file>
@@ -70046,7 +70046,7 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
